--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_1.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_1.xlsx
@@ -496,28 +496,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>380.633941317371</v>
+        <v>305.958941322087</v>
       </c>
       <c r="I2" t="n">
-        <v>321.252929700146</v>
+        <v>219.986816410931</v>
       </c>
       <c r="J2" t="n">
-        <v>285.469947280774</v>
+        <v>172.032128026305</v>
       </c>
       <c r="K2" t="n">
-        <v>260.868063378937</v>
+        <v>143.781143146268</v>
       </c>
       <c r="L2" t="n">
-        <v>243.327424603391</v>
+        <v>125.127863454262</v>
       </c>
       <c r="M2" t="n">
-        <v>230.515949118376</v>
+        <v>111.924950718939</v>
       </c>
       <c r="N2" t="n">
-        <v>220.908326779107</v>
+        <v>102.155619670662</v>
       </c>
       <c r="O2" t="n">
-        <v>213.507079985402</v>
+        <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>370.268314997684</v>
+        <v>320.230815000711</v>
       </c>
       <c r="I3" t="n">
-        <v>302.709541664996</v>
+        <v>234.886769975759</v>
       </c>
       <c r="J3" t="n">
-        <v>260.336206438901</v>
+        <v>184.516741111159</v>
       </c>
       <c r="K3" t="n">
-        <v>231.522003931267</v>
+        <v>153.477532364993</v>
       </c>
       <c r="L3" t="n">
-        <v>211.442562841871</v>
+        <v>132.784947783905</v>
       </c>
       <c r="M3" t="n">
-        <v>197.08414020971</v>
+        <v>118.233936086707</v>
       </c>
       <c r="N3" t="n">
-        <v>186.486439487899</v>
+        <v>107.566109931883</v>
       </c>
       <c r="O3" t="n">
-        <v>178.414487830406</v>
+        <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
@@ -590,28 +590,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>355.847103355036</v>
+        <v>330.83460335654</v>
       </c>
       <c r="I4" t="n">
-        <v>276.64457628707</v>
+        <v>242.607747121165</v>
       </c>
       <c r="J4" t="n">
-        <v>226.362807319808</v>
+        <v>188.575514578095</v>
       </c>
       <c r="K4" t="n">
-        <v>193.296123418659</v>
+        <v>154.598681934824</v>
       </c>
       <c r="L4" t="n">
-        <v>170.944975776293</v>
+        <v>132.033821271404</v>
       </c>
       <c r="M4" t="n">
-        <v>155.30882968239</v>
+        <v>116.341275831496</v>
       </c>
       <c r="N4" t="n">
-        <v>143.941314505457</v>
+        <v>104.956497497692</v>
       </c>
       <c r="O4" t="n">
-        <v>135.37479194669</v>
+        <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
@@ -637,28 +637,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>350.841762966168</v>
+        <v>276.166762970885</v>
       </c>
       <c r="I5" t="n">
-        <v>265.946736437144</v>
+        <v>161.41899700805</v>
       </c>
       <c r="J5" t="n">
-        <v>216.582947965064</v>
+        <v>100.959508575313</v>
       </c>
       <c r="K5" t="n">
-        <v>185.171889754022</v>
+        <v>66.9821020354688</v>
       </c>
       <c r="L5" t="n">
-        <v>164.049970000607</v>
+        <v>45.2686976209134</v>
       </c>
       <c r="M5" t="n">
-        <v>149.190830605139</v>
+        <v>30.260054230837</v>
       </c>
       <c r="N5" t="n">
-        <v>138.321446919402</v>
+        <v>19.3476709425518</v>
       </c>
       <c r="O5" t="n">
-        <v>130.09480563981</v>
+        <v>11.1067743893329</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>343.224346281674</v>
+        <v>293.1868462847</v>
       </c>
       <c r="I6" t="n">
-        <v>251.721626006519</v>
+        <v>182.016579273066</v>
       </c>
       <c r="J6" t="n">
-        <v>197.273842489868</v>
+        <v>120.254267578413</v>
       </c>
       <c r="K6" t="n">
-        <v>162.848119894713</v>
+        <v>84.2739208470969</v>
       </c>
       <c r="L6" t="n">
-        <v>140.087416387134</v>
+        <v>61.1937751432458</v>
       </c>
       <c r="M6" t="n">
-        <v>124.344709553092</v>
+        <v>45.377526084738</v>
       </c>
       <c r="N6" t="n">
-        <v>112.974769255627</v>
+        <v>33.9876014729822</v>
       </c>
       <c r="O6" t="n">
-        <v>104.442524955083</v>
+        <v>25.4488409393044</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>332.668573604037</v>
+        <v>307.656073605541</v>
       </c>
       <c r="I7" t="n">
-        <v>232.084556589221</v>
+        <v>197.36250145535</v>
       </c>
       <c r="J7" t="n">
-        <v>172.076569558569</v>
+        <v>133.891524453198</v>
       </c>
       <c r="K7" t="n">
-        <v>135.023467817805</v>
+        <v>96.1812803586853</v>
       </c>
       <c r="L7" t="n">
-        <v>111.042666608527</v>
+        <v>72.0802889403447</v>
       </c>
       <c r="M7" t="n">
-        <v>94.6947399052476</v>
+        <v>55.706710379565</v>
       </c>
       <c r="N7" t="n">
-        <v>82.9907881312212</v>
+        <v>43.9959144648564</v>
       </c>
       <c r="O7" t="n">
-        <v>74.2532758820862</v>
+        <v>35.2560581493574</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>287.050807899019</v>
+        <v>212.375807903736</v>
       </c>
       <c r="I8" t="n">
-        <v>179.767919176482</v>
+        <v>77.5162589672474</v>
       </c>
       <c r="J8" t="n">
-        <v>100.050397638173</v>
+        <v>-14.045689195886</v>
       </c>
       <c r="K8" t="n">
-        <v>53.3087599336789</v>
+        <v>-63.8454676587368</v>
       </c>
       <c r="L8" t="n">
-        <v>25.7601678203977</v>
+        <v>-92.347964039085</v>
       </c>
       <c r="M8" t="n">
-        <v>8.0567245171185</v>
+        <v>-110.433937714629</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.19834346635809</v>
+        <v>-122.871388609178</v>
       </c>
       <c r="O8" t="n">
-        <v>-13.1683412913344</v>
+        <v>-131.938972723872</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>284.309068664709</v>
+        <v>234.271568667736</v>
       </c>
       <c r="I9" t="n">
-        <v>175.453346960936</v>
+        <v>107.988579265978</v>
       </c>
       <c r="J9" t="n">
-        <v>94.2252136187108</v>
+        <v>18.5460497754398</v>
       </c>
       <c r="K9" t="n">
-        <v>46.2838260937278</v>
+        <v>-31.5713942997207</v>
       </c>
       <c r="L9" t="n">
-        <v>17.8339156031122</v>
+        <v>-60.6615492677588</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.533947600645998</v>
+        <v>-79.2647430206882</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.2794063575601</v>
+        <v>-92.1146861106535</v>
       </c>
       <c r="O9" t="n">
-        <v>-22.6152131091167</v>
+        <v>-101.504070488222</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>280.44365730347</v>
+        <v>255.431157304974</v>
       </c>
       <c r="I10" t="n">
-        <v>169.023528395556</v>
+        <v>135.813055843614</v>
       </c>
       <c r="J10" t="n">
-        <v>85.443527744122</v>
+        <v>48.0748494497129</v>
       </c>
       <c r="K10" t="n">
-        <v>35.8750588139051</v>
+        <v>-2.59544164514419</v>
       </c>
       <c r="L10" t="n">
-        <v>6.37218972419477</v>
+        <v>-32.3977568239551</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.6692983807168</v>
+        <v>-51.5410125284338</v>
       </c>
       <c r="N10" t="n">
-        <v>-25.8515364658283</v>
+        <v>-64.7679936149297</v>
       </c>
       <c r="O10" t="n">
-        <v>-35.4774953631028</v>
+        <v>-74.4183693074558</v>
       </c>
     </row>
     <row r="11">
@@ -1021,28 +1021,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.413467761943</v>
+        <v>48.7384677666593</v>
       </c>
       <c r="H2" t="n">
-        <v>196.900529639046</v>
+        <v>95.6344163498311</v>
       </c>
       <c r="I2" t="n">
-        <v>254.480055366507</v>
+        <v>141.042236112038</v>
       </c>
       <c r="J2" t="n">
-        <v>283.461340854662</v>
+        <v>166.374420621993</v>
       </c>
       <c r="K2" t="n">
-        <v>297.066265186449</v>
+        <v>178.86670403732</v>
       </c>
       <c r="L2" t="n">
-        <v>304.014328967341</v>
+        <v>185.423330567905</v>
       </c>
       <c r="M2" t="n">
-        <v>307.928526413252</v>
+        <v>189.175819304807</v>
       </c>
       <c r="N2" t="n">
-        <v>310.325836170511</v>
+        <v>191.49661822277</v>
       </c>
     </row>
     <row r="3">
@@ -1065,28 +1065,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>113.047841442257</v>
+        <v>63.0103414452833</v>
       </c>
       <c r="H3" t="n">
-        <v>178.357141603896</v>
+        <v>110.534369914659</v>
       </c>
       <c r="I3" t="n">
-        <v>229.346314524635</v>
+        <v>153.526849196892</v>
       </c>
       <c r="J3" t="n">
-        <v>254.115281406992</v>
+        <v>176.070809840718</v>
       </c>
       <c r="K3" t="n">
-        <v>265.181403424928</v>
+        <v>186.523788366962</v>
       </c>
       <c r="L3" t="n">
-        <v>270.582520058676</v>
+        <v>191.732315935673</v>
       </c>
       <c r="M3" t="n">
-        <v>273.506639122043</v>
+        <v>194.586309566028</v>
       </c>
       <c r="N3" t="n">
-        <v>275.233244015516</v>
+        <v>196.283890100564</v>
       </c>
     </row>
     <row r="4">
@@ -1109,28 +1109,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>98.6266297996078</v>
+        <v>73.6141298011119</v>
       </c>
       <c r="H4" t="n">
-        <v>152.292176225969</v>
+        <v>118.255347060064</v>
       </c>
       <c r="I4" t="n">
-        <v>195.372915405541</v>
+        <v>157.585622663829</v>
       </c>
       <c r="J4" t="n">
-        <v>215.889400894384</v>
+        <v>177.191959410549</v>
       </c>
       <c r="K4" t="n">
-        <v>224.683816359351</v>
+        <v>185.772661854462</v>
       </c>
       <c r="L4" t="n">
-        <v>228.807209531355</v>
+        <v>189.839655680462</v>
       </c>
       <c r="M4" t="n">
-        <v>230.961514139601</v>
+        <v>191.976697131837</v>
       </c>
       <c r="N4" t="n">
-        <v>232.1935481318</v>
+        <v>193.202523601104</v>
       </c>
     </row>
     <row r="5">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>93.6212894107406</v>
+        <v>18.9462894154569</v>
       </c>
       <c r="H5" t="n">
-        <v>141.594336376044</v>
+        <v>37.0665969469494</v>
       </c>
       <c r="I5" t="n">
-        <v>185.593056050798</v>
+        <v>69.9696166610458</v>
       </c>
       <c r="J5" t="n">
-        <v>207.765167229747</v>
+        <v>89.5753795111941</v>
       </c>
       <c r="K5" t="n">
-        <v>217.788810583664</v>
+        <v>99.0075382039711</v>
       </c>
       <c r="L5" t="n">
-        <v>222.689210454105</v>
+        <v>103.758434079803</v>
       </c>
       <c r="M5" t="n">
-        <v>225.341646553546</v>
+        <v>106.367870576697</v>
       </c>
       <c r="N5" t="n">
-        <v>226.913561824919</v>
+        <v>107.925530574442</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>86.0038727262462</v>
+        <v>35.9663727292728</v>
       </c>
       <c r="H6" t="n">
-        <v>127.369225945419</v>
+        <v>57.6641792119662</v>
       </c>
       <c r="I6" t="n">
-        <v>166.283950575601</v>
+        <v>89.2643756641462</v>
       </c>
       <c r="J6" t="n">
-        <v>185.441397370438</v>
+        <v>106.867198322822</v>
       </c>
       <c r="K6" t="n">
-        <v>193.826256970192</v>
+        <v>114.932615726303</v>
       </c>
       <c r="L6" t="n">
-        <v>197.843089402058</v>
+        <v>118.875905933704</v>
       </c>
       <c r="M6" t="n">
-        <v>199.994968889772</v>
+        <v>121.007801107127</v>
       </c>
       <c r="N6" t="n">
-        <v>201.261281140192</v>
+        <v>122.267597124414</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>75.4481000486094</v>
+        <v>50.4356000501135</v>
       </c>
       <c r="H7" t="n">
-        <v>107.732156528121</v>
+        <v>73.0101013942496</v>
       </c>
       <c r="I7" t="n">
-        <v>141.086677644302</v>
+        <v>102.901632538931</v>
       </c>
       <c r="J7" t="n">
-        <v>157.61674529353</v>
+        <v>118.774557834411</v>
       </c>
       <c r="K7" t="n">
-        <v>164.781507191585</v>
+        <v>125.819129523402</v>
       </c>
       <c r="L7" t="n">
-        <v>168.193119754213</v>
+        <v>129.205090228531</v>
       </c>
       <c r="M7" t="n">
-        <v>170.010987765366</v>
+        <v>131.016114099001</v>
       </c>
       <c r="N7" t="n">
-        <v>171.072032067195</v>
+        <v>132.074814334467</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>29.8303343435916</v>
+        <v>-44.8446656516921</v>
       </c>
       <c r="H8" t="n">
-        <v>55.4155191153822</v>
+        <v>-46.8361410938528</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0605057239065</v>
+        <v>-45.0355811101528</v>
       </c>
       <c r="J8" t="n">
-        <v>75.9020374094042</v>
+        <v>-41.2521901830115</v>
       </c>
       <c r="K8" t="n">
-        <v>79.4990084034554</v>
+        <v>-38.6091234560273</v>
       </c>
       <c r="L8" t="n">
-        <v>81.5551043660841</v>
+        <v>-36.9355578656631</v>
       </c>
       <c r="M8" t="n">
-        <v>82.8218561677867</v>
+        <v>-35.8511889750334</v>
       </c>
       <c r="N8" t="n">
-        <v>83.6504148937748</v>
+        <v>-35.1202165387623</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0885951092812</v>
+        <v>-22.9489048876922</v>
       </c>
       <c r="H9" t="n">
-        <v>51.1009468998355</v>
+        <v>-16.3638207951224</v>
       </c>
       <c r="I9" t="n">
-        <v>63.235321704444</v>
+        <v>-12.443842138827</v>
       </c>
       <c r="J9" t="n">
-        <v>68.8771035694531</v>
+        <v>-8.9781168239954</v>
       </c>
       <c r="K9" t="n">
-        <v>71.5727561861699</v>
+        <v>-6.92270868470105</v>
       </c>
       <c r="L9" t="n">
-        <v>72.9644322483196</v>
+        <v>-5.76636317172253</v>
       </c>
       <c r="M9" t="n">
-        <v>73.7407932765848</v>
+        <v>-5.09448647650869</v>
       </c>
       <c r="N9" t="n">
-        <v>74.2035430759925</v>
+        <v>-4.68531430311303</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.2231837480419</v>
+        <v>-1.78931625045402</v>
       </c>
       <c r="H10" t="n">
-        <v>44.6711283344554</v>
+        <v>11.4606557825138</v>
       </c>
       <c r="I10" t="n">
-        <v>54.4536358298552</v>
+        <v>17.0849575354461</v>
       </c>
       <c r="J10" t="n">
-        <v>58.4683362896304</v>
+        <v>19.9978358305811</v>
       </c>
       <c r="K10" t="n">
-        <v>60.1110303072525</v>
+        <v>21.3410837591026</v>
       </c>
       <c r="L10" t="n">
-        <v>60.8290814682488</v>
+        <v>21.9573673205318</v>
       </c>
       <c r="M10" t="n">
-        <v>61.1686631683165</v>
+        <v>22.2522060192151</v>
       </c>
       <c r="N10" t="n">
-        <v>61.3412608220064</v>
+        <v>22.4003868776534</v>
       </c>
     </row>
     <row r="11">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.479796440991113</v>
+        <v>0.189481292421914</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58340755419517</v>
+        <v>0.769059674785861</v>
       </c>
       <c r="I2" t="n">
-        <v>8.21171161456527</v>
+        <v>4.55123356035671</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5462691793707</v>
+        <v>7.36389046700948</v>
       </c>
       <c r="K2" t="n">
-        <v>5.52796193522837</v>
+        <v>3.3284436749406</v>
       </c>
       <c r="L2" t="n">
-        <v>4.13634055052738</v>
+        <v>2.52282201252514</v>
       </c>
       <c r="M2" t="n">
-        <v>3.53858676155493</v>
+        <v>2.17392996224038</v>
       </c>
       <c r="N2" t="n">
-        <v>3.20522436352306</v>
+        <v>1.97788760946944</v>
       </c>
     </row>
     <row r="3">
@@ -1563,28 +1563,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.439497835765769</v>
+        <v>0.244966275717961</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43428789083492</v>
+        <v>0.888880068742929</v>
       </c>
       <c r="I3" t="n">
-        <v>7.40068133051637</v>
+        <v>4.95409437443739</v>
       </c>
       <c r="J3" t="n">
-        <v>11.2473846116403</v>
+        <v>7.79306189772123</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9346320193691</v>
+        <v>3.47093064054248</v>
       </c>
       <c r="L3" t="n">
-        <v>3.68147598103122</v>
+        <v>2.60866044026644</v>
       </c>
       <c r="M3" t="n">
-        <v>3.14302472612032</v>
+        <v>2.23610506967484</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84276781545606</v>
+        <v>2.02733331675203</v>
       </c>
     </row>
     <row r="4">
@@ -1607,28 +1607,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383432268964994</v>
+        <v>0.286190787162395</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22468224297352</v>
+        <v>0.950969559107504</v>
       </c>
       <c r="I4" t="n">
-        <v>6.30440777096085</v>
+        <v>5.08506525610956</v>
       </c>
       <c r="J4" t="n">
-        <v>9.5554706981464</v>
+        <v>7.8426850465112</v>
       </c>
       <c r="K4" t="n">
-        <v>4.18103207887568</v>
+        <v>3.45695329186225</v>
       </c>
       <c r="L4" t="n">
-        <v>3.11309188041341</v>
+        <v>2.58290939297669</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65411381622454</v>
+        <v>2.20611648719442</v>
       </c>
       <c r="N4" t="n">
-        <v>2.39822899281897</v>
+        <v>1.99550718490658</v>
       </c>
     </row>
     <row r="5">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.363972929979722</v>
+        <v>0.0736577814105229</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13865382820494</v>
+        <v>0.298077053026213</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98882553589534</v>
+        <v>2.25782060984969</v>
       </c>
       <c r="J5" t="n">
-        <v>9.19588437104686</v>
+        <v>3.96469169236008</v>
       </c>
       <c r="K5" t="n">
-        <v>4.05272626317745</v>
+        <v>1.84238322095816</v>
       </c>
       <c r="L5" t="n">
-        <v>3.02985196288295</v>
+        <v>1.41171049338801</v>
       </c>
       <c r="M5" t="n">
-        <v>2.58953263151475</v>
+        <v>1.22233540056095</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34369424650612</v>
+        <v>1.11471717699097</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.334358581715749</v>
+        <v>0.139827021667941</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02426029479798</v>
+        <v>0.463715852557997</v>
       </c>
       <c r="I6" t="n">
-        <v>5.36574800052945</v>
+        <v>2.88043520484341</v>
       </c>
       <c r="J6" t="n">
-        <v>8.20781303508003</v>
+        <v>4.73004407782991</v>
       </c>
       <c r="K6" t="n">
-        <v>3.60681873421921</v>
+        <v>2.138725258664</v>
       </c>
       <c r="L6" t="n">
-        <v>2.69180204799905</v>
+        <v>1.61739491643198</v>
       </c>
       <c r="M6" t="n">
-        <v>2.29825913673609</v>
+        <v>1.39057140314404</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07874268447941</v>
+        <v>1.26285031890565</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293320741563565</v>
+        <v>0.196079259760966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.866345615164543</v>
+        <v>0.587122575506193</v>
       </c>
       <c r="I7" t="n">
-        <v>4.55266762577349</v>
+        <v>3.32049020447076</v>
       </c>
       <c r="J7" t="n">
-        <v>6.97626740798793</v>
+        <v>5.25707516149548</v>
       </c>
       <c r="K7" t="n">
-        <v>3.06633908368197</v>
+        <v>2.34130710968613</v>
       </c>
       <c r="L7" t="n">
-        <v>2.28839220809818</v>
+        <v>1.75793113391123</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9536956761779</v>
+        <v>1.50558278020306</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76693069409114</v>
+        <v>1.36414491921329</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.115971850651164</v>
+        <v>-0.174343297918035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.44563288756915</v>
+        <v>-0.376640427292437</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22848488516712</v>
+        <v>-1.45323453320661</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35949653568213</v>
+        <v>-1.82586126458783</v>
       </c>
       <c r="K8" t="n">
-        <v>1.47935845918714</v>
+        <v>-0.718458437828665</v>
       </c>
       <c r="L8" t="n">
-        <v>1.10961771584183</v>
+        <v>-0.50253567414089</v>
       </c>
       <c r="M8" t="n">
-        <v>0.951754380201275</v>
+        <v>-0.41198697688308</v>
       </c>
       <c r="N8" t="n">
-        <v>0.863989770059041</v>
+        <v>-0.362741868648007</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.105312748767038</v>
+        <v>-0.0892188112807706</v>
       </c>
       <c r="H9" t="n">
-        <v>0.410936555102492</v>
+        <v>-0.131592319787009</v>
       </c>
       <c r="I9" t="n">
-        <v>2.04051443223435</v>
+        <v>-0.401545193292471</v>
       </c>
       <c r="J9" t="n">
-        <v>3.04856626682234</v>
+        <v>-0.397380009768025</v>
       </c>
       <c r="K9" t="n">
-        <v>1.33186267901609</v>
+        <v>-0.12882132568531</v>
       </c>
       <c r="L9" t="n">
-        <v>0.99273524665791</v>
+        <v>-0.078455650091499</v>
       </c>
       <c r="M9" t="n">
-        <v>0.847398576268612</v>
+        <v>-0.0585437231576946</v>
       </c>
       <c r="N9" t="n">
-        <v>0.766417024962825</v>
+        <v>-0.0483926305989214</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0902851294340598</v>
+        <v>-0.006956352368539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.359230125936503</v>
+        <v>0.0921627228496002</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75714184420199</v>
+        <v>0.551307425747447</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58786430399264</v>
+        <v>0.885123278464898</v>
       </c>
       <c r="K10" t="n">
-        <v>1.11857698556682</v>
+        <v>0.397125868879107</v>
       </c>
       <c r="L10" t="n">
-        <v>0.827624793815165</v>
+        <v>0.298746276661509</v>
       </c>
       <c r="M10" t="n">
-        <v>0.702924877505283</v>
+        <v>0.255713111585231</v>
       </c>
       <c r="N10" t="n">
-        <v>0.633567949424253</v>
+        <v>0.231364125715743</v>
       </c>
     </row>
     <row r="11">
@@ -1981,236 +1981,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.94897747096082</v>
+        <v>0.769690515702866</v>
       </c>
       <c r="B2" t="n">
-        <v>6.4319477737283</v>
+        <v>3.12399145122016</v>
       </c>
       <c r="C2" t="n">
-        <v>33.3567312457647</v>
+        <v>18.4875312036346</v>
       </c>
       <c r="D2" t="n">
-        <v>50.9641045371081</v>
+        <v>29.9128034155018</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4550921007949</v>
+        <v>13.5204457173983</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8021974663811</v>
+        <v>10.247936094521</v>
       </c>
       <c r="G2" t="n">
-        <v>14.3740663500222</v>
+        <v>8.83070435266459</v>
       </c>
       <c r="H2" t="n">
-        <v>13.0199174903777</v>
+        <v>8.03436220365771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.39129966151673</v>
+        <v>1.33285701210954</v>
       </c>
       <c r="B3" t="n">
-        <v>7.80393410105212</v>
+        <v>4.83638014692469</v>
       </c>
       <c r="C3" t="n">
-        <v>40.266971348839</v>
+        <v>26.9551366051044</v>
       </c>
       <c r="D3" t="n">
-        <v>61.196813331063</v>
+        <v>42.401906816514</v>
       </c>
       <c r="E3" t="n">
-        <v>26.849242288228</v>
+        <v>18.8852699386233</v>
       </c>
       <c r="F3" t="n">
-        <v>20.0308432736259</v>
+        <v>14.1936735978509</v>
       </c>
       <c r="G3" t="n">
-        <v>17.1011398739079</v>
+        <v>12.1666066612421</v>
       </c>
       <c r="H3" t="n">
-        <v>15.4674475313996</v>
+        <v>11.030683383648</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.41657629697019</v>
+        <v>2.55010529622261</v>
       </c>
       <c r="B4" t="n">
-        <v>10.9125409135704</v>
+        <v>8.4736218564941</v>
       </c>
       <c r="C4" t="n">
-        <v>56.1754758274298</v>
+        <v>45.3105146039671</v>
       </c>
       <c r="D4" t="n">
-        <v>85.1440980223311</v>
+        <v>69.8823077850004</v>
       </c>
       <c r="E4" t="n">
-        <v>37.2551197532695</v>
+        <v>30.8032099348111</v>
       </c>
       <c r="F4" t="n">
-        <v>27.7392300799854</v>
+        <v>23.0150347885079</v>
       </c>
       <c r="G4" t="n">
-        <v>23.6495023709174</v>
+        <v>19.6576185902386</v>
       </c>
       <c r="H4" t="n">
-        <v>21.3694386069526</v>
+        <v>17.7809827190314</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.18395422105594</v>
+        <v>0.441970293323983</v>
       </c>
       <c r="B5" t="n">
-        <v>6.83228786978259</v>
+        <v>1.78855784190539</v>
       </c>
       <c r="C5" t="n">
-        <v>35.9348724340981</v>
+        <v>13.5476472152559</v>
       </c>
       <c r="D5" t="n">
-        <v>55.1782532003384</v>
+        <v>23.7894207055388</v>
       </c>
       <c r="E5" t="n">
-        <v>24.3176563425851</v>
+        <v>11.0548897480876</v>
       </c>
       <c r="F5" t="n">
-        <v>18.18008274374</v>
+        <v>8.4707153664298</v>
       </c>
       <c r="G5" t="n">
-        <v>15.5380256478794</v>
+        <v>7.33440412107001</v>
       </c>
       <c r="H5" t="n">
-        <v>14.0629165548293</v>
+        <v>6.68866029160087</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.64026967659079</v>
+        <v>1.10414706086929</v>
       </c>
       <c r="B6" t="n">
-        <v>8.08809327822218</v>
+        <v>3.66174212661357</v>
       </c>
       <c r="C6" t="n">
-        <v>42.3707436050483</v>
+        <v>22.7454180709441</v>
       </c>
       <c r="D6" t="n">
-        <v>64.8131708073568</v>
+        <v>37.3508940118941</v>
       </c>
       <c r="E6" t="n">
-        <v>28.4813211135535</v>
+        <v>16.8884896509398</v>
       </c>
       <c r="F6" t="n">
-        <v>21.2558723220057</v>
+        <v>12.7717934769739</v>
       </c>
       <c r="G6" t="n">
-        <v>18.1482523239995</v>
+        <v>10.9806767632983</v>
       </c>
       <c r="H6" t="n">
-        <v>16.4148359737088</v>
+        <v>9.97212449571336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.20783232726635</v>
+        <v>2.14437405556394</v>
       </c>
       <c r="B7" t="n">
-        <v>9.47458217954907</v>
+        <v>6.42092600658619</v>
       </c>
       <c r="C7" t="n">
-        <v>49.7891635872955</v>
+        <v>36.3137491180939</v>
       </c>
       <c r="D7" t="n">
-        <v>76.2942845286264</v>
+        <v>57.4927485864808</v>
       </c>
       <c r="E7" t="n">
-        <v>33.5342860056955</v>
+        <v>25.6051467566678</v>
       </c>
       <c r="F7" t="n">
-        <v>25.02645555671</v>
+        <v>19.2251945444042</v>
       </c>
       <c r="G7" t="n">
-        <v>21.3661267671581</v>
+        <v>16.4654469641872</v>
       </c>
       <c r="H7" t="n">
-        <v>19.3236160877372</v>
+        <v>14.9186455332216</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.39145951813878</v>
+        <v>-2.0918148667081</v>
       </c>
       <c r="B8" t="n">
-        <v>5.34681579643778</v>
+        <v>-4.51902685461424</v>
       </c>
       <c r="C8" t="n">
-        <v>26.7379237899839</v>
+        <v>-17.4362745094128</v>
       </c>
       <c r="D8" t="n">
-        <v>40.3080868717884</v>
+        <v>-21.9071440280251</v>
       </c>
       <c r="E8" t="n">
-        <v>17.749715963116</v>
+        <v>-8.62024556899478</v>
       </c>
       <c r="F8" t="n">
-        <v>13.3134732569522</v>
+        <v>-6.02954978351564</v>
       </c>
       <c r="G8" t="n">
-        <v>11.4193891347379</v>
+        <v>-4.94312367280855</v>
       </c>
       <c r="H8" t="n">
-        <v>10.3663672035325</v>
+        <v>-4.35226844207176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.84927368941508</v>
+        <v>-1.5666669252684</v>
       </c>
       <c r="B9" t="n">
-        <v>7.21597497232704</v>
+        <v>-2.31073842018431</v>
       </c>
       <c r="C9" t="n">
-        <v>35.8310811993904</v>
+        <v>-7.05106428006634</v>
       </c>
       <c r="D9" t="n">
-        <v>53.5322974063086</v>
+        <v>-6.97792437636501</v>
       </c>
       <c r="E9" t="n">
-        <v>23.3872787393167</v>
+        <v>-2.26208024208346</v>
       </c>
       <c r="F9" t="n">
-        <v>17.432259566793</v>
+        <v>-1.37766767270608</v>
       </c>
       <c r="G9" t="n">
-        <v>14.8801727225624</v>
+        <v>-1.02801767291645</v>
       </c>
       <c r="H9" t="n">
-        <v>13.4581506605508</v>
+        <v>-0.849766239851285</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.07685073957198</v>
+        <v>-0.237067367173625</v>
       </c>
       <c r="B10" t="n">
-        <v>12.2422982122601</v>
+        <v>3.14083774081386</v>
       </c>
       <c r="C10" t="n">
-        <v>59.88210037196</v>
+        <v>18.7881511747895</v>
       </c>
       <c r="D10" t="n">
-        <v>88.1925101903644</v>
+        <v>30.1643496667537</v>
       </c>
       <c r="E10" t="n">
-        <v>38.1202801267857</v>
+        <v>13.5337572313751</v>
       </c>
       <c r="F10" t="n">
-        <v>28.204843642586</v>
+        <v>10.181053159609</v>
       </c>
       <c r="G10" t="n">
-        <v>23.9551623038352</v>
+        <v>8.714514576555</v>
       </c>
       <c r="H10" t="n">
-        <v>21.5915292581916</v>
+        <v>7.88471906482481</v>
       </c>
     </row>
     <row r="11">
@@ -2281,236 +2281,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.7672068146867</v>
+        <v>1.09282578787465</v>
       </c>
       <c r="B2" t="n">
-        <v>9.13223984184665</v>
+        <v>4.43552096504107</v>
       </c>
       <c r="C2" t="n">
-        <v>47.3607188355276</v>
+        <v>26.2490578242601</v>
       </c>
       <c r="D2" t="n">
-        <v>72.3601065075248</v>
+        <v>42.4709442213067</v>
       </c>
       <c r="E2" t="n">
-        <v>31.8822997246367</v>
+        <v>19.1966659872891</v>
       </c>
       <c r="F2" t="n">
-        <v>23.856178957143</v>
+        <v>14.5502752185494</v>
       </c>
       <c r="G2" t="n">
-        <v>20.4086578481234</v>
+        <v>12.5380542501244</v>
       </c>
       <c r="H2" t="n">
-        <v>18.4860035289531</v>
+        <v>11.4073878086761</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.20394288926815</v>
+        <v>1.2284285326193</v>
       </c>
       <c r="B3" t="n">
-        <v>7.19250094294831</v>
+        <v>4.45745290987562</v>
       </c>
       <c r="C3" t="n">
-        <v>37.1120803489551</v>
+        <v>24.843219194198</v>
       </c>
       <c r="D3" t="n">
-        <v>56.4020828327806</v>
+        <v>39.0797450121301</v>
       </c>
       <c r="E3" t="n">
-        <v>24.7456216281339</v>
+        <v>17.405621329256</v>
       </c>
       <c r="F3" t="n">
-        <v>18.4614397389877</v>
+        <v>13.0816085085444</v>
       </c>
       <c r="G3" t="n">
-        <v>15.7612766940191</v>
+        <v>11.2133609472263</v>
       </c>
       <c r="H3" t="n">
-        <v>14.2555830833575</v>
+        <v>10.1664365191854</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.8882630612704</v>
+        <v>7.38052067660527</v>
       </c>
       <c r="B4" t="n">
-        <v>31.5831012806449</v>
+        <v>24.5243760758535</v>
       </c>
       <c r="C4" t="n">
-        <v>162.583192731934</v>
+        <v>131.137796701008</v>
       </c>
       <c r="D4" t="n">
-        <v>246.424246432319</v>
+        <v>202.253537648065</v>
       </c>
       <c r="E4" t="n">
-        <v>107.823854197591</v>
+        <v>89.1507218021324</v>
       </c>
       <c r="F4" t="n">
-        <v>80.2829441834044</v>
+        <v>66.6101671883842</v>
       </c>
       <c r="G4" t="n">
-        <v>68.4464447403528</v>
+        <v>56.8931254223046</v>
       </c>
       <c r="H4" t="n">
-        <v>61.8474788941787</v>
+        <v>51.4617615212061</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.15781033492547</v>
+        <v>0.43667951345767</v>
       </c>
       <c r="B5" t="n">
-        <v>6.7504992707561</v>
+        <v>1.76714720421633</v>
       </c>
       <c r="C5" t="n">
-        <v>35.5046998581475</v>
+        <v>13.3854697562613</v>
       </c>
       <c r="D5" t="n">
-        <v>54.5177201385006</v>
+        <v>23.5046400539853</v>
       </c>
       <c r="E5" t="n">
-        <v>24.0265522378145</v>
+        <v>10.9225528263827</v>
       </c>
       <c r="F5" t="n">
-        <v>17.9624508865736</v>
+        <v>8.3693133242769</v>
       </c>
       <c r="G5" t="n">
-        <v>15.3520215781449</v>
+        <v>7.24660474124448</v>
       </c>
       <c r="H5" t="n">
-        <v>13.8945708608001</v>
+        <v>6.60859104319674</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.57546833602605</v>
+        <v>0.658852672565613</v>
       </c>
       <c r="B6" t="n">
-        <v>4.82622474955581</v>
+        <v>2.18498846020209</v>
       </c>
       <c r="C6" t="n">
-        <v>25.2829343591245</v>
+        <v>13.5723582625537</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6744957417714</v>
+        <v>22.287553184335</v>
       </c>
       <c r="E6" t="n">
-        <v>16.9950137974289</v>
+        <v>10.0774859948078</v>
       </c>
       <c r="F6" t="n">
-        <v>12.6835353580901</v>
+        <v>7.62102310822207</v>
       </c>
       <c r="G6" t="n">
-        <v>10.8291956477686</v>
+        <v>6.55225059095157</v>
       </c>
       <c r="H6" t="n">
-        <v>9.79485336173397</v>
+        <v>5.95044003466814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.18975951020476</v>
+        <v>1.46381200840663</v>
       </c>
       <c r="B7" t="n">
-        <v>6.46762496173368</v>
+        <v>4.38311057212428</v>
       </c>
       <c r="C7" t="n">
-        <v>33.9875290686813</v>
+        <v>24.7888197916815</v>
       </c>
       <c r="D7" t="n">
-        <v>52.0806943993851</v>
+        <v>39.2462199208345</v>
       </c>
       <c r="E7" t="n">
-        <v>22.8914775484775</v>
+        <v>17.4788168147126</v>
       </c>
       <c r="F7" t="n">
-        <v>17.0837853949565</v>
+        <v>13.1236761445762</v>
       </c>
       <c r="G7" t="n">
-        <v>14.5851386579471</v>
+        <v>11.2397922962284</v>
       </c>
       <c r="H7" t="n">
-        <v>13.1908615484673</v>
+        <v>10.1839007164021</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.759346155923728</v>
+        <v>-1.14154350682337</v>
       </c>
       <c r="B8" t="n">
-        <v>2.91785996540385</v>
+        <v>-2.46611965769396</v>
       </c>
       <c r="C8" t="n">
-        <v>14.5913980124004</v>
+        <v>-9.51530953632308</v>
       </c>
       <c r="D8" t="n">
-        <v>21.9968963665384</v>
+        <v>-11.9551488118026</v>
       </c>
       <c r="E8" t="n">
-        <v>9.6863605513717</v>
+        <v>-4.7042333970954</v>
       </c>
       <c r="F8" t="n">
-        <v>7.26541779180364</v>
+        <v>-3.29044100124995</v>
       </c>
       <c r="G8" t="n">
-        <v>6.23177974595991</v>
+        <v>-2.69755742820567</v>
       </c>
       <c r="H8" t="n">
-        <v>5.65712547457029</v>
+        <v>-2.37511639250271</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.04194953107935</v>
+        <v>-0.882718376130281</v>
       </c>
       <c r="B9" t="n">
-        <v>4.06574850533595</v>
+        <v>-1.30195591228014</v>
       </c>
       <c r="C9" t="n">
-        <v>20.1885629301196</v>
+        <v>-3.97283169185695</v>
       </c>
       <c r="D9" t="n">
-        <v>30.1620860662035</v>
+        <v>-3.93162195162164</v>
       </c>
       <c r="E9" t="n">
-        <v>13.1772621084338</v>
+        <v>-1.27454008619364</v>
       </c>
       <c r="F9" t="n">
-        <v>9.82198296836123</v>
+        <v>-0.776229172445161</v>
       </c>
       <c r="G9" t="n">
-        <v>8.38404238344925</v>
+        <v>-0.579223366648004</v>
       </c>
       <c r="H9" t="n">
-        <v>7.58282229948964</v>
+        <v>-0.478789883946361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.82690745416131</v>
+        <v>-0.140760854810962</v>
       </c>
       <c r="B10" t="n">
-        <v>7.26897329545306</v>
+        <v>1.86490030445944</v>
       </c>
       <c r="C10" t="n">
-        <v>35.555528948274</v>
+        <v>11.1556316299917</v>
       </c>
       <c r="D10" t="n">
-        <v>52.3650862213705</v>
+        <v>17.9103505241163</v>
       </c>
       <c r="E10" t="n">
-        <v>22.6342548966252</v>
+        <v>8.0357885583518</v>
       </c>
       <c r="F10" t="n">
-        <v>16.7468764186015</v>
+        <v>6.04509073816484</v>
       </c>
       <c r="G10" t="n">
-        <v>14.2235903794958</v>
+        <v>5.17432042918028</v>
       </c>
       <c r="H10" t="n">
-        <v>12.8201622656611</v>
+        <v>4.68162197412933</v>
       </c>
     </row>
     <row r="11">
@@ -2581,236 +2581,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.48115543706456</v>
+        <v>-0.584938158175994</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.88805774203046</v>
+        <v>-2.37412540281282</v>
       </c>
       <c r="C2" t="n">
-        <v>-25.3499614969942</v>
+        <v>-14.0498839869425</v>
       </c>
       <c r="D2" t="n">
-        <v>-38.7309559268794</v>
+        <v>-22.7326955169328</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.065092978464</v>
+        <v>-10.275070894477</v>
       </c>
       <c r="F2" t="n">
-        <v>-12.7690886645775</v>
+        <v>-7.78807682040931</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.9237930372619</v>
+        <v>-6.71102973735801</v>
       </c>
       <c r="H2" t="n">
-        <v>-9.89468676182179</v>
+        <v>-6.10583726010288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.36081783942836</v>
+        <v>-0.758489464400887</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.44098784997079</v>
+        <v>-2.75224075347289</v>
       </c>
       <c r="C3" t="n">
-        <v>-22.9147412317599</v>
+        <v>-15.3393701955316</v>
       </c>
       <c r="D3" t="n">
-        <v>-34.8252946451125</v>
+        <v>-24.1296697985116</v>
       </c>
       <c r="E3" t="n">
-        <v>-15.2791088749541</v>
+        <v>-10.7470479958996</v>
       </c>
       <c r="F3" t="n">
-        <v>-11.3989598644674</v>
+        <v>-8.07719941997063</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.73175239786264</v>
+        <v>-6.92365564064224</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.8020664536039</v>
+        <v>-6.27723533404145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.18365482311316</v>
+        <v>-0.883470518716949</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.78059219582532</v>
+        <v>-2.93564156274535</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.4616970687231</v>
+        <v>-15.6975886053782</v>
       </c>
       <c r="D4" t="n">
-        <v>-29.497723312406</v>
+        <v>-24.2103566466075</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.9068395811096</v>
+        <v>-10.6716094819949</v>
       </c>
       <c r="F4" t="n">
-        <v>-9.61010983502316</v>
+        <v>-7.97343731374955</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.19324525853158</v>
+        <v>-6.81027819454479</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.40332920320574</v>
+        <v>-6.1601276031029</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.27541233129928</v>
+        <v>-0.662850409071947</v>
       </c>
       <c r="B5" t="n">
-        <v>-10.2468081628801</v>
+        <v>-2.68241172554728</v>
       </c>
       <c r="C5" t="n">
-        <v>-53.8937689991519</v>
+        <v>-20.3182513264801</v>
       </c>
       <c r="D5" t="n">
-        <v>-82.7542671038952</v>
+        <v>-35.678477681512</v>
       </c>
       <c r="E5" t="n">
-        <v>-36.4707056058577</v>
+        <v>-16.5797075107796</v>
       </c>
       <c r="F5" t="n">
-        <v>-27.2658037557657</v>
+        <v>-12.7040600478868</v>
       </c>
       <c r="G5" t="n">
-        <v>-23.30334597696</v>
+        <v>-10.9998632156629</v>
       </c>
       <c r="H5" t="n">
-        <v>-21.0910328859595</v>
+        <v>-10.0314009276205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.02468740429117</v>
+        <v>-1.26490855729888</v>
       </c>
       <c r="B6" t="n">
-        <v>-9.26570269706669</v>
+        <v>-4.19488410079067</v>
       </c>
       <c r="C6" t="n">
-        <v>-48.5398350134152</v>
+        <v>-26.0571032400582</v>
       </c>
       <c r="D6" t="n">
-        <v>-74.2498325498013</v>
+        <v>-42.7891058471979</v>
       </c>
       <c r="E6" t="n">
-        <v>-32.6281417362538</v>
+        <v>-19.3474183253352</v>
       </c>
       <c r="F6" t="n">
-        <v>-24.350682753971</v>
+        <v>-14.6313398220338</v>
       </c>
       <c r="G6" t="n">
-        <v>-20.7905998016001</v>
+        <v>-12.5794402712026</v>
       </c>
       <c r="H6" t="n">
-        <v>-18.8048016660526</v>
+        <v>-11.4240449086074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.63707561742921</v>
+        <v>-1.7628342006873</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.78880786213351</v>
+        <v>-5.27847645569277</v>
       </c>
       <c r="C7" t="n">
-        <v>-40.9303778730045</v>
+        <v>-29.8525897263382</v>
       </c>
       <c r="D7" t="n">
-        <v>-62.7195492013451</v>
+        <v>-47.2632949632993</v>
       </c>
       <c r="E7" t="n">
-        <v>-27.5676653115089</v>
+        <v>-21.0493259322711</v>
       </c>
       <c r="F7" t="n">
-        <v>-20.5735989310628</v>
+        <v>-15.8045329684003</v>
       </c>
       <c r="G7" t="n">
-        <v>-17.5645377277526</v>
+        <v>-13.5358161803719</v>
       </c>
       <c r="H7" t="n">
-        <v>-15.8854427622032</v>
+        <v>-12.2642309095544</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.730335457265341</v>
+        <v>1.0979310193912</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.80638359125835</v>
+        <v>2.37190194988473</v>
       </c>
       <c r="C8" t="n">
-        <v>-14.0339359808354</v>
+        <v>9.15177865459531</v>
       </c>
       <c r="D8" t="n">
-        <v>-21.1565084526322</v>
+        <v>11.4984042600725</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.31629469292208</v>
+        <v>4.52450891118444</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.98784366498278</v>
+        <v>3.16473022811205</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.99369559566147</v>
+        <v>2.59449767732279</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.44099589896745</v>
+        <v>2.28437544991155</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.663523821491233</v>
+        <v>0.562123838784948</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.58910907391861</v>
+        <v>0.829098470282277</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.8562776086984</v>
+        <v>2.52993872322368</v>
       </c>
       <c r="D9" t="n">
-        <v>-19.2075163084561</v>
+        <v>2.50369595089356</v>
       </c>
       <c r="E9" t="n">
-        <v>-8.39141153211365</v>
+        <v>0.811639799634945</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.25473641418871</v>
+        <v>0.494310455056549</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.33904155227944</v>
+        <v>0.368855199097002</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.82881663628595</v>
+        <v>0.304898158702891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.565683593110132</v>
+        <v>0.0435851886954355</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.25076476787445</v>
+        <v>-0.577447698631834</v>
       </c>
       <c r="C10" t="n">
-        <v>-11.0094133802877</v>
+        <v>-3.45422958863769</v>
       </c>
       <c r="D10" t="n">
-        <v>-16.2143244091286</v>
+        <v>-5.54576063240992</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.00847030216507</v>
+        <v>-2.48820143286818</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.18550253011851</v>
+        <v>-1.87180179360083</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.40419228378136</v>
+        <v>-1.60217648990085</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.96963482642497</v>
+        <v>-1.44961734863828</v>
       </c>
     </row>
     <row r="11">
@@ -2881,236 +2881,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.44669958904524</v>
+        <v>-0.571330848791397</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.77434774883564</v>
+        <v>-2.31889655781039</v>
       </c>
       <c r="C2" t="n">
-        <v>-24.7602499793649</v>
+        <v>-13.7230441055708</v>
       </c>
       <c r="D2" t="n">
-        <v>-37.8299647833</v>
+        <v>-22.2038689790825</v>
       </c>
       <c r="E2" t="n">
-        <v>-16.6681108418241</v>
+        <v>-10.036043799637</v>
       </c>
       <c r="F2" t="n">
-        <v>-12.4720436905241</v>
+        <v>-7.60690421382679</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.6696748378699</v>
+        <v>-6.55491228006949</v>
       </c>
       <c r="H2" t="n">
-        <v>-9.66450847348506</v>
+        <v>-5.96379828471905</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.32956230739017</v>
+        <v>-0.741068329059824</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.33898636674192</v>
+        <v>-2.68902674601754</v>
       </c>
       <c r="C3" t="n">
-        <v>-22.3884309439574</v>
+        <v>-14.9870525210414</v>
       </c>
       <c r="D3" t="n">
-        <v>-34.0254204216991</v>
+        <v>-23.5754547922068</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.9281752943385</v>
+        <v>-10.5002076817742</v>
       </c>
       <c r="F3" t="n">
-        <v>-11.1371463102039</v>
+        <v>-7.89168071354639</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.50823159291277</v>
+        <v>-6.76463175483807</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.59989885844767</v>
+        <v>-6.13305855709911</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.15721195395575</v>
+        <v>-0.863733772095655</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.69613370098408</v>
+        <v>-2.87005927961609</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.0269224206414</v>
+        <v>-15.3469042052699</v>
       </c>
       <c r="D4" t="n">
-        <v>-28.8387436649951</v>
+        <v>-23.6694968616775</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.6185005623226</v>
+        <v>-10.4332055421629</v>
       </c>
       <c r="F4" t="n">
-        <v>-9.39541981560733</v>
+        <v>-7.79531058667914</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.01020801818473</v>
+        <v>-6.65813646225308</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.23793870115492</v>
+        <v>-6.02251024623416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.17443988403121</v>
+        <v>-0.642416454135322</v>
       </c>
       <c r="B5" t="n">
-        <v>-9.93092570527145</v>
+        <v>-2.59971994536411</v>
       </c>
       <c r="C5" t="n">
-        <v>-52.2323642055192</v>
+        <v>-19.6918924583041</v>
       </c>
       <c r="D5" t="n">
-        <v>-80.2031681807128</v>
+        <v>-34.57860296593</v>
       </c>
       <c r="E5" t="n">
-        <v>-35.3464085628787</v>
+        <v>-16.0685982295588</v>
       </c>
       <c r="F5" t="n">
-        <v>-26.4252699073575</v>
+        <v>-12.3124269026434</v>
       </c>
       <c r="G5" t="n">
-        <v>-22.584964400893</v>
+        <v>-10.660766028452</v>
       </c>
       <c r="H5" t="n">
-        <v>-20.4408511712616</v>
+        <v>-9.72215891509285</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.93425786053697</v>
+        <v>-1.2270913919399</v>
       </c>
       <c r="B6" t="n">
-        <v>-8.98868456082258</v>
+        <v>-4.06946900672242</v>
       </c>
       <c r="C6" t="n">
-        <v>-47.0886321129304</v>
+        <v>-25.2780700235309</v>
       </c>
       <c r="D6" t="n">
-        <v>-72.0299739053086</v>
+        <v>-41.509833379596</v>
       </c>
       <c r="E6" t="n">
-        <v>-31.6526531728503</v>
+        <v>-18.7689855889475</v>
       </c>
       <c r="F6" t="n">
-        <v>-23.62266665273</v>
+        <v>-14.1939044087934</v>
       </c>
       <c r="G6" t="n">
-        <v>-20.169020047022</v>
+        <v>-12.203350813894</v>
       </c>
       <c r="H6" t="n">
-        <v>-18.2425916232439</v>
+        <v>-11.0824984838605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.56015611514386</v>
+        <v>-1.71141499661432</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.56162013183413</v>
+        <v>-5.12451129098025</v>
       </c>
       <c r="C7" t="n">
-        <v>-39.7365007336708</v>
+        <v>-28.981834891512</v>
       </c>
       <c r="D7" t="n">
-        <v>-60.8901149309572</v>
+        <v>-45.8846962227418</v>
       </c>
       <c r="E7" t="n">
-        <v>-26.763558261671</v>
+        <v>-20.4353489710299</v>
       </c>
       <c r="F7" t="n">
-        <v>-19.9734982060261</v>
+        <v>-15.343538675424</v>
       </c>
       <c r="G7" t="n">
-        <v>-17.0522067612223</v>
+        <v>-13.1409969204542</v>
       </c>
       <c r="H7" t="n">
-        <v>-15.422088453068</v>
+        <v>-11.9065018663519</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.715533927849751</v>
+        <v>1.07567952096244</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.74950730397938</v>
+        <v>2.32383119536656</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.7495136456326</v>
+        <v>8.96630180335742</v>
       </c>
       <c r="D8" t="n">
-        <v>-20.7277346897296</v>
+        <v>11.2653689237832</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.12748363552399</v>
+        <v>4.43281179984501</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.84622275293496</v>
+        <v>3.1005914175178</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.87222283847198</v>
+        <v>2.54191562984372</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.33072457084348</v>
+        <v>2.23807857348065</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.650191829075603</v>
+        <v>0.55082924692164</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.53708685343654</v>
+        <v>0.812439634292378</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.5979601376132</v>
+        <v>2.47910539550046</v>
       </c>
       <c r="D9" t="n">
-        <v>-18.8215852334091</v>
+        <v>2.45338991161175</v>
       </c>
       <c r="E9" t="n">
-        <v>-8.22280532495271</v>
+        <v>0.795331755669564</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.12906180276584</v>
+        <v>0.48437841791737</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.23176573312083</v>
+        <v>0.361443898164694</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.73179261893154</v>
+        <v>0.298771928102411</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.554500818999849</v>
+        <v>0.0427235704238937</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.20627029378843</v>
+        <v>-0.566032364595364</v>
       </c>
       <c r="C10" t="n">
-        <v>-10.7917726630776</v>
+        <v>-3.38594429685043</v>
       </c>
       <c r="D10" t="n">
-        <v>-15.8937898745821</v>
+        <v>-5.43612869473789</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.86992263841397</v>
+        <v>-2.43901316772571</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.08299239167911</v>
+        <v>-1.83479888792705</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.3171275570549</v>
+        <v>-1.5705036996881</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.8911606933497</v>
+        <v>-1.42096043945157</v>
       </c>
     </row>
     <row r="11">
@@ -3181,236 +3181,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.18937408878535</v>
+        <v>2.44430867224269</v>
       </c>
       <c r="B2" t="n">
-        <v>20.4259574491176</v>
+        <v>9.9208698047376</v>
       </c>
       <c r="C2" t="n">
-        <v>105.931079827892</v>
+        <v>58.7109129286015</v>
       </c>
       <c r="D2" t="n">
-        <v>161.846872413882</v>
+        <v>94.9941870244221</v>
       </c>
       <c r="E2" t="n">
-        <v>71.3107089644459</v>
+        <v>42.9369234067336</v>
       </c>
       <c r="F2" t="n">
-        <v>53.3587931018031</v>
+        <v>32.5444039615743</v>
       </c>
       <c r="G2" t="n">
-        <v>45.6477692240585</v>
+        <v>28.0436965129009</v>
       </c>
       <c r="H2" t="n">
-        <v>41.3473942894474</v>
+        <v>25.5147501621558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.08690260172303</v>
+        <v>3.95008119595212</v>
       </c>
       <c r="B3" t="n">
-        <v>23.1278922397131</v>
+        <v>14.3331911084797</v>
       </c>
       <c r="C3" t="n">
-        <v>119.335986454576</v>
+        <v>79.8847717878028</v>
       </c>
       <c r="D3" t="n">
-        <v>181.3640768627</v>
+        <v>125.663123100755</v>
       </c>
       <c r="E3" t="n">
-        <v>79.5709413123268</v>
+        <v>55.9687565787474</v>
       </c>
       <c r="F3" t="n">
-        <v>59.3638001941284</v>
+        <v>42.0646495992964</v>
       </c>
       <c r="G3" t="n">
-        <v>50.6812737086901</v>
+        <v>36.0571942485068</v>
       </c>
       <c r="H3" t="n">
-        <v>45.8396310242289</v>
+        <v>32.6907497326265</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.18284533706053</v>
+        <v>4.61482644299362</v>
       </c>
       <c r="B4" t="n">
-        <v>19.7480011679481</v>
+        <v>15.3343841406085</v>
       </c>
       <c r="C4" t="n">
-        <v>101.658575306744</v>
+        <v>81.9966772547666</v>
       </c>
       <c r="D4" t="n">
-        <v>154.081965007611</v>
+        <v>126.463296374993</v>
       </c>
       <c r="E4" t="n">
-        <v>67.4191422718704</v>
+        <v>55.7433718312788</v>
       </c>
       <c r="F4" t="n">
-        <v>50.1986065716662</v>
+        <v>41.6494139617491</v>
       </c>
       <c r="G4" t="n">
-        <v>42.7975852866207</v>
+        <v>35.57362835601</v>
       </c>
       <c r="H4" t="n">
-        <v>38.6714425092058</v>
+        <v>32.1775533566187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.70750113819773</v>
+        <v>1.35740768599392</v>
       </c>
       <c r="B5" t="n">
-        <v>20.983763405491</v>
+        <v>5.49313426291163</v>
       </c>
       <c r="C5" t="n">
-        <v>110.3654991615</v>
+        <v>41.6084083815157</v>
       </c>
       <c r="D5" t="n">
-        <v>169.467011980721</v>
+        <v>73.0636040449215</v>
       </c>
       <c r="E5" t="n">
-        <v>74.685955421413</v>
+        <v>33.952490786229</v>
       </c>
       <c r="F5" t="n">
-        <v>55.8358433159858</v>
+        <v>26.0158076638647</v>
       </c>
       <c r="G5" t="n">
-        <v>47.7213870664862</v>
+        <v>22.525895238909</v>
       </c>
       <c r="H5" t="n">
-        <v>43.19093682847</v>
+        <v>20.5426451188336</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.1887095068886</v>
+        <v>3.00628096586073</v>
       </c>
       <c r="B6" t="n">
-        <v>22.0215963381566</v>
+        <v>9.96989082999692</v>
       </c>
       <c r="C6" t="n">
-        <v>115.363582011383</v>
+        <v>61.9293569041332</v>
       </c>
       <c r="D6" t="n">
-        <v>176.46798025422</v>
+        <v>101.695947673343</v>
       </c>
       <c r="E6" t="n">
-        <v>77.546602785713</v>
+        <v>45.9825930612759</v>
       </c>
       <c r="F6" t="n">
-        <v>57.8737440319795</v>
+        <v>34.7739907032875</v>
       </c>
       <c r="G6" t="n">
-        <v>49.4125714398258</v>
+        <v>29.8972851675968</v>
       </c>
       <c r="H6" t="n">
-        <v>44.6929677163073</v>
+        <v>27.1512818564715</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12.6127918872332</v>
+        <v>8.4314081697215</v>
       </c>
       <c r="B7" t="n">
-        <v>37.2528614520751</v>
+        <v>25.2462707467661</v>
       </c>
       <c r="C7" t="n">
-        <v>195.764707908259</v>
+        <v>142.781078792242</v>
       </c>
       <c r="D7" t="n">
-        <v>299.979498543479</v>
+        <v>226.054231944304</v>
       </c>
       <c r="E7" t="n">
-        <v>131.852580598324</v>
+        <v>100.676205716503</v>
       </c>
       <c r="F7" t="n">
-        <v>98.4008649482213</v>
+        <v>75.5910387581826</v>
       </c>
       <c r="G7" t="n">
-        <v>84.0089140756491</v>
+        <v>64.7400595487313</v>
       </c>
       <c r="H7" t="n">
-        <v>75.9780198459184</v>
+        <v>58.658231526171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.49339478900001</v>
+        <v>-3.74838090523776</v>
       </c>
       <c r="B8" t="n">
-        <v>9.58110708273671</v>
+        <v>-8.09776918678738</v>
       </c>
       <c r="C8" t="n">
-        <v>47.9124250310931</v>
+        <v>-31.2445424639421</v>
       </c>
       <c r="D8" t="n">
-        <v>72.2291755171658</v>
+        <v>-39.2560171886384</v>
       </c>
       <c r="E8" t="n">
-        <v>31.8062068725234</v>
+        <v>-15.4468564133163</v>
       </c>
       <c r="F8" t="n">
-        <v>23.8567808905992</v>
+        <v>-10.8045169940291</v>
       </c>
       <c r="G8" t="n">
-        <v>20.4627191743274</v>
+        <v>-8.85772000298621</v>
       </c>
       <c r="H8" t="n">
-        <v>18.5757800562694</v>
+        <v>-7.79895017593215</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.71706891818957</v>
+        <v>-2.30184533104388</v>
       </c>
       <c r="B9" t="n">
-        <v>10.6021631216443</v>
+        <v>-3.39508185050483</v>
       </c>
       <c r="C9" t="n">
-        <v>52.6452723516461</v>
+        <v>-10.3598659869457</v>
       </c>
       <c r="D9" t="n">
-        <v>78.6530096840163</v>
+        <v>-10.252404252015</v>
       </c>
       <c r="E9" t="n">
-        <v>34.3620571186151</v>
+        <v>-3.323590202681</v>
       </c>
       <c r="F9" t="n">
-        <v>25.612569363774</v>
+        <v>-2.02415577236067</v>
       </c>
       <c r="G9" t="n">
-        <v>21.8628832677302</v>
+        <v>-1.51042805746852</v>
       </c>
       <c r="H9" t="n">
-        <v>19.7735592440408</v>
+        <v>-1.24852986945217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.91169542424842</v>
+        <v>-0.224342363885382</v>
       </c>
       <c r="B10" t="n">
-        <v>11.5851715614522</v>
+        <v>2.9722478118996</v>
       </c>
       <c r="C10" t="n">
-        <v>56.6678244755141</v>
+        <v>17.7796644803551</v>
       </c>
       <c r="D10" t="n">
-        <v>83.4586238037624</v>
+        <v>28.5452257304929</v>
       </c>
       <c r="E10" t="n">
-        <v>36.0741077845298</v>
+        <v>12.8073092713512</v>
       </c>
       <c r="F10" t="n">
-        <v>26.690899600539</v>
+        <v>9.63456742233364</v>
       </c>
       <c r="G10" t="n">
-        <v>22.6693272995453</v>
+        <v>8.24674784862367</v>
       </c>
       <c r="H10" t="n">
-        <v>20.4325663689321</v>
+        <v>7.46149305433268</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_1.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_1.xlsx
@@ -637,28 +637,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>276.166762970885</v>
+        <v>297.216762939616</v>
       </c>
       <c r="I5" t="n">
-        <v>161.41899700805</v>
+        <v>188.88876163263</v>
       </c>
       <c r="J5" t="n">
-        <v>100.959508575313</v>
+        <v>130.412949014979</v>
       </c>
       <c r="K5" t="n">
-        <v>66.9821020354688</v>
+        <v>96.671736245233</v>
       </c>
       <c r="L5" t="n">
-        <v>45.2686976209134</v>
+        <v>74.9946715363091</v>
       </c>
       <c r="M5" t="n">
-        <v>30.260054230837</v>
+        <v>59.9962744177698</v>
       </c>
       <c r="N5" t="n">
-        <v>19.3476709425518</v>
+        <v>49.0886568390619</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1067743893329</v>
+        <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>293.1868462847</v>
+        <v>307.224346263849</v>
       </c>
       <c r="I6" t="n">
-        <v>182.016579273066</v>
+        <v>200.100040166797</v>
       </c>
       <c r="J6" t="n">
-        <v>120.254267578413</v>
+        <v>139.771055953038</v>
       </c>
       <c r="K6" t="n">
-        <v>84.2739208470969</v>
+        <v>103.976596989415</v>
       </c>
       <c r="L6" t="n">
-        <v>61.1937751432458</v>
+        <v>80.9258040028391</v>
       </c>
       <c r="M6" t="n">
-        <v>45.377526084738</v>
+        <v>65.1175728470531</v>
       </c>
       <c r="N6" t="n">
-        <v>33.9876014729822</v>
+        <v>53.731219933595</v>
       </c>
       <c r="O6" t="n">
-        <v>25.4488409393044</v>
+        <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>307.656073605541</v>
+        <v>314.668573595124</v>
       </c>
       <c r="I7" t="n">
-        <v>197.36250145535</v>
+        <v>206.219833547116</v>
       </c>
       <c r="J7" t="n">
-        <v>133.891524453198</v>
+        <v>143.504334912525</v>
       </c>
       <c r="K7" t="n">
-        <v>96.1812803586853</v>
+        <v>105.902653793024</v>
       </c>
       <c r="L7" t="n">
-        <v>72.0802889403447</v>
+        <v>81.8196981772802</v>
       </c>
       <c r="M7" t="n">
-        <v>55.706710379565</v>
+        <v>65.4510274707899</v>
       </c>
       <c r="N7" t="n">
-        <v>43.9959144648564</v>
+        <v>53.7423740102523</v>
       </c>
       <c r="O7" t="n">
-        <v>35.2560581493574</v>
+        <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>212.375807903736</v>
+        <v>266.000807930288</v>
       </c>
       <c r="I8" t="n">
-        <v>77.5162589672474</v>
+        <v>155.562935242816</v>
       </c>
       <c r="J8" t="n">
-        <v>-14.045689195886</v>
+        <v>72.7835029649257</v>
       </c>
       <c r="K8" t="n">
-        <v>-63.8454676587368</v>
+        <v>24.721654691844</v>
       </c>
       <c r="L8" t="n">
-        <v>-92.347964039085</v>
+        <v>-3.38530595420321</v>
       </c>
       <c r="M8" t="n">
-        <v>-110.433937714629</v>
+        <v>-21.3416730890296</v>
       </c>
       <c r="N8" t="n">
-        <v>-122.871388609178</v>
+        <v>-33.7208561709312</v>
       </c>
       <c r="O8" t="n">
-        <v>-131.938972723872</v>
+        <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>234.271568667736</v>
+        <v>270.271568685561</v>
       </c>
       <c r="I9" t="n">
-        <v>107.988579265978</v>
+        <v>159.254117451636</v>
       </c>
       <c r="J9" t="n">
-        <v>18.5460497754398</v>
+        <v>75.9090207918885</v>
       </c>
       <c r="K9" t="n">
-        <v>-31.5713942997207</v>
+        <v>27.1105522435488</v>
       </c>
       <c r="L9" t="n">
-        <v>-60.6615492677588</v>
+        <v>-1.66299881454391</v>
       </c>
       <c r="M9" t="n">
-        <v>-79.2647430206882</v>
+        <v>-20.1584247153941</v>
       </c>
       <c r="N9" t="n">
-        <v>-92.1146861106535</v>
+        <v>-32.9580172322294</v>
       </c>
       <c r="O9" t="n">
-        <v>-101.504070488222</v>
+        <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>255.431157304974</v>
+        <v>273.431157313886</v>
       </c>
       <c r="I10" t="n">
-        <v>135.813055843614</v>
+        <v>160.852162605097</v>
       </c>
       <c r="J10" t="n">
-        <v>48.0748494497129</v>
+        <v>76.2284892037397</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.59544164514419</v>
+        <v>26.2981452880862</v>
       </c>
       <c r="L10" t="n">
-        <v>-32.3977568239551</v>
+        <v>-3.31648855059343</v>
       </c>
       <c r="M10" t="n">
-        <v>-51.5410125284338</v>
+        <v>-22.3938021710369</v>
       </c>
       <c r="N10" t="n">
-        <v>-64.7679936149297</v>
+        <v>-35.5887361600515</v>
       </c>
       <c r="O10" t="n">
-        <v>-74.4183693074558</v>
+        <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9462894154569</v>
+        <v>39.9962893841882</v>
       </c>
       <c r="H5" t="n">
-        <v>37.0665969469494</v>
+        <v>64.5363615715299</v>
       </c>
       <c r="I5" t="n">
-        <v>69.9696166610458</v>
+        <v>99.4230571007118</v>
       </c>
       <c r="J5" t="n">
-        <v>89.5753795111941</v>
+        <v>119.265013720958</v>
       </c>
       <c r="K5" t="n">
-        <v>99.0075382039711</v>
+        <v>128.733512119367</v>
       </c>
       <c r="L5" t="n">
-        <v>103.758434079803</v>
+        <v>133.494654266735</v>
       </c>
       <c r="M5" t="n">
-        <v>106.367870576697</v>
+        <v>136.108856473207</v>
       </c>
       <c r="N5" t="n">
-        <v>107.925530574442</v>
+        <v>137.669294341224</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>35.9663727292728</v>
+        <v>50.0038727084208</v>
       </c>
       <c r="H6" t="n">
-        <v>57.6641792119662</v>
+        <v>75.7476401056969</v>
       </c>
       <c r="I6" t="n">
-        <v>89.2643756641462</v>
+        <v>108.781164038771</v>
       </c>
       <c r="J6" t="n">
-        <v>106.867198322822</v>
+        <v>126.56987446514</v>
       </c>
       <c r="K6" t="n">
-        <v>114.932615726303</v>
+        <v>134.664644585897</v>
       </c>
       <c r="L6" t="n">
-        <v>118.875905933704</v>
+        <v>138.615952696019</v>
       </c>
       <c r="M6" t="n">
-        <v>121.007801107127</v>
+        <v>140.75141956774</v>
       </c>
       <c r="N6" t="n">
-        <v>122.267597124414</v>
+        <v>142.01322774245</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.4356000501135</v>
+        <v>57.4481000396968</v>
       </c>
       <c r="H7" t="n">
-        <v>73.0101013942496</v>
+        <v>81.8674334860162</v>
       </c>
       <c r="I7" t="n">
-        <v>102.901632538931</v>
+        <v>112.514442998258</v>
       </c>
       <c r="J7" t="n">
-        <v>118.774557834411</v>
+        <v>128.49593126875</v>
       </c>
       <c r="K7" t="n">
-        <v>125.819129523402</v>
+        <v>135.558538760338</v>
       </c>
       <c r="L7" t="n">
-        <v>129.205090228531</v>
+        <v>138.949407319755</v>
       </c>
       <c r="M7" t="n">
-        <v>131.016114099001</v>
+        <v>140.762573644397</v>
       </c>
       <c r="N7" t="n">
-        <v>132.074814334467</v>
+        <v>141.8224565217</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-44.8446656516921</v>
+        <v>8.78033437486027</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8361410938528</v>
+        <v>31.210535181716</v>
       </c>
       <c r="I8" t="n">
-        <v>-45.0355811101528</v>
+        <v>41.7936110506589</v>
       </c>
       <c r="J8" t="n">
-        <v>-41.2521901830115</v>
+        <v>47.3149321675693</v>
       </c>
       <c r="K8" t="n">
-        <v>-38.6091234560273</v>
+        <v>50.3535346288545</v>
       </c>
       <c r="L8" t="n">
-        <v>-36.9355578656631</v>
+        <v>52.156706759936</v>
       </c>
       <c r="M8" t="n">
-        <v>-35.8511889750334</v>
+        <v>53.2993434632136</v>
       </c>
       <c r="N8" t="n">
-        <v>-35.1202165387623</v>
+        <v>54.0623310393967</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-22.9489048876922</v>
+        <v>13.0510951301332</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.3638207951224</v>
+        <v>34.9017173905357</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.443842138827</v>
+        <v>44.9191288776217</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.9781168239954</v>
+        <v>49.7038297192741</v>
       </c>
       <c r="K9" t="n">
-        <v>-6.92270868470105</v>
+        <v>52.0758417685138</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.76636317172253</v>
+        <v>53.3399551335716</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.09448647650869</v>
+        <v>54.0621824019155</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.68531430311303</v>
+        <v>54.5000619342742</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.78931625045402</v>
+        <v>16.2106837584587</v>
       </c>
       <c r="H10" t="n">
-        <v>11.4606557825138</v>
+        <v>36.499762543997</v>
       </c>
       <c r="I10" t="n">
-        <v>17.0849575354461</v>
+        <v>45.2385972894729</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9978358305811</v>
+        <v>48.8914227638114</v>
       </c>
       <c r="K10" t="n">
-        <v>21.3410837591026</v>
+        <v>50.4223520324643</v>
       </c>
       <c r="L10" t="n">
-        <v>21.9573673205318</v>
+        <v>51.1045776779287</v>
       </c>
       <c r="M10" t="n">
-        <v>22.2522060192151</v>
+        <v>51.4314634740933</v>
       </c>
       <c r="N10" t="n">
-        <v>22.4003868776534</v>
+        <v>51.5989135914275</v>
       </c>
     </row>
     <row r="11">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0736577814105229</v>
+        <v>0.155494190766932</v>
       </c>
       <c r="H5" t="n">
-        <v>0.298077053026213</v>
+        <v>0.518979621943928</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25782060984969</v>
+        <v>3.20824149292823</v>
       </c>
       <c r="J5" t="n">
-        <v>3.96469169236008</v>
+        <v>5.27878320660202</v>
       </c>
       <c r="K5" t="n">
-        <v>1.84238322095816</v>
+        <v>2.39553944079606</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41171049338801</v>
+        <v>1.81629383587854</v>
       </c>
       <c r="M5" t="n">
-        <v>1.22233540056095</v>
+        <v>1.56410646086131</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11471717699097</v>
+        <v>1.42192793799181</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.139827021667941</v>
+        <v>0.19440082671975</v>
       </c>
       <c r="H6" t="n">
-        <v>0.463715852557997</v>
+        <v>0.609136937192032</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88043520484341</v>
+        <v>3.51021437376138</v>
       </c>
       <c r="J6" t="n">
-        <v>4.73004407782991</v>
+        <v>5.60210330710671</v>
       </c>
       <c r="K6" t="n">
-        <v>2.138725258664</v>
+        <v>2.50590900594072</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61739491643198</v>
+        <v>1.88597290145532</v>
       </c>
       <c r="M6" t="n">
-        <v>1.39057140314404</v>
+        <v>1.61745686816963</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26285031890565</v>
+        <v>1.46679458958276</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.196079259760966</v>
+        <v>0.223341864065566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.587122575506193</v>
+        <v>0.658350248533931</v>
       </c>
       <c r="I7" t="n">
-        <v>3.32049020447076</v>
+        <v>3.6306820078472</v>
       </c>
       <c r="J7" t="n">
-        <v>5.25707516149548</v>
+        <v>5.68735241740861</v>
       </c>
       <c r="K7" t="n">
-        <v>2.34130710968613</v>
+        <v>2.5225430487437</v>
       </c>
       <c r="L7" t="n">
-        <v>1.75793113391123</v>
+        <v>1.89050979906343</v>
       </c>
       <c r="M7" t="n">
-        <v>1.50558278020306</v>
+        <v>1.61758504618697</v>
       </c>
       <c r="N7" t="n">
-        <v>1.36414491921329</v>
+        <v>1.4648241942971</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.174343297918035</v>
+        <v>0.0341354412947546</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.376640427292437</v>
+        <v>0.250984582254792</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.45323453320661</v>
+        <v>1.34862074273381</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.82586126458783</v>
+        <v>2.09420400463835</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.718458437828665</v>
+        <v>0.937004484699089</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.50253567414089</v>
+        <v>0.709630700256449</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.41198697688308</v>
+        <v>0.612493923104034</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.362741868648007</v>
+        <v>0.558386961055708</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0892188112807706</v>
+        <v>0.0507389437152283</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.131592319787009</v>
+        <v>0.280667822843683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.401545193292471</v>
+        <v>1.4494767842976</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.397380009768025</v>
+        <v>2.19993888769246</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.12882132568531</v>
+        <v>0.969054062266684</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.078455650091499</v>
+        <v>0.725729672452396</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0585437231576946</v>
+        <v>0.621260151426987</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0483926305989214</v>
+        <v>0.562908098406829</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006956352368539</v>
+        <v>0.0630225251294605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0921627228496002</v>
+        <v>0.29351876221177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.551307425747447</v>
+        <v>1.4597855782984</v>
       </c>
       <c r="J10" t="n">
-        <v>0.885123278464898</v>
+        <v>2.16398098134905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.397125868879107</v>
+        <v>0.938285074359438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.298746276661509</v>
+        <v>0.695315703324961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.255713111585231</v>
+        <v>0.591029021886003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.231364125715743</v>
+        <v>0.532943363709143</v>
       </c>
     </row>
     <row r="11">
@@ -2059,158 +2059,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.441970293323983</v>
+        <v>0.933014975300602</v>
       </c>
       <c r="B5" t="n">
-        <v>1.78855784190539</v>
+        <v>3.11404404731309</v>
       </c>
       <c r="C5" t="n">
-        <v>13.5476472152559</v>
+        <v>19.2504770919029</v>
       </c>
       <c r="D5" t="n">
-        <v>23.7894207055388</v>
+        <v>31.6743909134671</v>
       </c>
       <c r="E5" t="n">
-        <v>11.0548897480876</v>
+        <v>14.3740043352236</v>
       </c>
       <c r="F5" t="n">
-        <v>8.4707153664298</v>
+        <v>10.8983450768325</v>
       </c>
       <c r="G5" t="n">
-        <v>7.33440412107001</v>
+        <v>9.38514000909142</v>
       </c>
       <c r="H5" t="n">
-        <v>6.68866029160087</v>
+        <v>8.53202330840259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.10414706086929</v>
+        <v>1.53509027720631</v>
       </c>
       <c r="B6" t="n">
-        <v>3.66174212661357</v>
+        <v>4.81006282508632</v>
       </c>
       <c r="C6" t="n">
-        <v>22.7454180709441</v>
+        <v>27.7184827194126</v>
       </c>
       <c r="D6" t="n">
-        <v>37.3508940118941</v>
+        <v>44.2371283278659</v>
       </c>
       <c r="E6" t="n">
-        <v>16.8884896509398</v>
+        <v>19.7879639479563</v>
       </c>
       <c r="F6" t="n">
-        <v>12.7717934769739</v>
+        <v>14.8926252678559</v>
       </c>
       <c r="G6" t="n">
-        <v>10.9806767632983</v>
+        <v>12.7722826801925</v>
       </c>
       <c r="H6" t="n">
-        <v>9.97212449571336</v>
+        <v>11.5825747818106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.14437405556394</v>
+        <v>2.44252502486664</v>
       </c>
       <c r="B7" t="n">
-        <v>6.42092600658619</v>
+        <v>7.19989046343427</v>
       </c>
       <c r="C7" t="n">
-        <v>36.3137491180939</v>
+        <v>39.7060877887922</v>
       </c>
       <c r="D7" t="n">
-        <v>57.4927485864808</v>
+        <v>62.1983731660726</v>
       </c>
       <c r="E7" t="n">
-        <v>25.6051467566678</v>
+        <v>27.5871903757869</v>
       </c>
       <c r="F7" t="n">
-        <v>19.2251945444042</v>
+        <v>20.6751094931869</v>
       </c>
       <c r="G7" t="n">
-        <v>16.4654469641872</v>
+        <v>17.6903330313472</v>
       </c>
       <c r="H7" t="n">
-        <v>14.9186455332216</v>
+        <v>16.0197004111618</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.0918148667081</v>
+        <v>0.409565635356854</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.51902685461424</v>
+        <v>3.01137632902828</v>
       </c>
       <c r="C8" t="n">
-        <v>-17.4362745094128</v>
+        <v>16.181091862377</v>
       </c>
       <c r="D8" t="n">
-        <v>-21.9071440280251</v>
+        <v>25.1267879129008</v>
       </c>
       <c r="E8" t="n">
-        <v>-8.62024556899478</v>
+        <v>11.2424161678254</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.02954978351564</v>
+        <v>8.51432814679688</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.94312367280855</v>
+        <v>7.34885659166397</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.35226844207176</v>
+        <v>6.69966761246781</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.5666669252684</v>
+        <v>0.890967093156462</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.31073842018431</v>
+        <v>4.92847852066216</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.05106428006634</v>
+        <v>25.4525621256836</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.97792437636501</v>
+        <v>38.6305471176163</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.26208024208346</v>
+        <v>17.0164220566948</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.37766767270608</v>
+        <v>12.7436877738595</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.02801767291645</v>
+        <v>10.9092210180307</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.849766239851285</v>
+        <v>9.88456903964358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.237067367173625</v>
+        <v>2.14776125669619</v>
       </c>
       <c r="B10" t="n">
-        <v>3.14083774081386</v>
+        <v>10.0029033158681</v>
       </c>
       <c r="C10" t="n">
-        <v>18.7881511747895</v>
+        <v>49.748417755599</v>
       </c>
       <c r="D10" t="n">
-        <v>30.1643496667537</v>
+        <v>73.7468786346086</v>
       </c>
       <c r="E10" t="n">
-        <v>13.5337572313751</v>
+        <v>31.976064530989</v>
       </c>
       <c r="F10" t="n">
-        <v>10.181053159609</v>
+        <v>23.6958472499497</v>
       </c>
       <c r="G10" t="n">
-        <v>8.714514576555</v>
+        <v>20.1418339265561</v>
       </c>
       <c r="H10" t="n">
-        <v>7.88471906482481</v>
+        <v>18.1623174608847</v>
       </c>
     </row>
     <row r="11">
@@ -2359,158 +2359,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.43667951345767</v>
+        <v>0.92184595122624</v>
       </c>
       <c r="B5" t="n">
-        <v>1.76714720421633</v>
+        <v>3.0767661537596</v>
       </c>
       <c r="C5" t="n">
-        <v>13.3854697562613</v>
+        <v>19.0200316566481</v>
       </c>
       <c r="D5" t="n">
-        <v>23.5046400539853</v>
+        <v>31.2952201134065</v>
       </c>
       <c r="E5" t="n">
-        <v>10.9225528263827</v>
+        <v>14.2019346421156</v>
       </c>
       <c r="F5" t="n">
-        <v>8.3693133242769</v>
+        <v>10.7678821349118</v>
       </c>
       <c r="G5" t="n">
-        <v>7.24660474124448</v>
+        <v>9.27279148577964</v>
       </c>
       <c r="H5" t="n">
-        <v>6.60859104319674</v>
+        <v>8.42988735532867</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.658852672565613</v>
+        <v>0.91599965947525</v>
       </c>
       <c r="B6" t="n">
-        <v>2.18498846020209</v>
+        <v>2.87019986723653</v>
       </c>
       <c r="C6" t="n">
-        <v>13.5723582625537</v>
+        <v>16.5398225167315</v>
       </c>
       <c r="D6" t="n">
-        <v>22.287553184335</v>
+        <v>26.3966198510697</v>
       </c>
       <c r="E6" t="n">
-        <v>10.0774859948078</v>
+        <v>11.8076236343724</v>
       </c>
       <c r="F6" t="n">
-        <v>7.62102310822207</v>
+        <v>8.88653903721855</v>
       </c>
       <c r="G6" t="n">
-        <v>6.55225059095157</v>
+        <v>7.62131501938084</v>
       </c>
       <c r="H6" t="n">
-        <v>5.95044003466814</v>
+        <v>6.91140756574489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.46381200840663</v>
+        <v>1.66733851911542</v>
       </c>
       <c r="B7" t="n">
-        <v>4.38311057212428</v>
+        <v>4.91485433347859</v>
       </c>
       <c r="C7" t="n">
-        <v>24.7888197916815</v>
+        <v>27.1045286904465</v>
       </c>
       <c r="D7" t="n">
-        <v>39.2462199208345</v>
+        <v>42.4584159221746</v>
       </c>
       <c r="E7" t="n">
-        <v>17.4788168147126</v>
+        <v>18.8318173527131</v>
       </c>
       <c r="F7" t="n">
-        <v>13.1236761445762</v>
+        <v>14.1134301978345</v>
       </c>
       <c r="G7" t="n">
-        <v>11.2397922962284</v>
+        <v>12.0759350994798</v>
       </c>
       <c r="H7" t="n">
-        <v>10.1839007164021</v>
+        <v>10.9355127535193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.14154350682337</v>
+        <v>0.223507825238554</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.46611965769396</v>
+        <v>1.64336583973783</v>
       </c>
       <c r="C8" t="n">
-        <v>-9.51530953632308</v>
+        <v>8.83033228360096</v>
       </c>
       <c r="D8" t="n">
-        <v>-11.9551488118026</v>
+        <v>13.7121702526375</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.7042333970954</v>
+        <v>6.13520220247006</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.29044100124995</v>
+        <v>4.64643222764499</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.69755742820567</v>
+        <v>4.01041203899272</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.37511639250271</v>
+        <v>3.65613715755023</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.882718376130281</v>
+        <v>0.502003976066483</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.30195591228014</v>
+        <v>2.77688798198542</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.97283169185695</v>
+        <v>14.3409195315012</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.93162195162164</v>
+        <v>21.7658860799941</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.27454008619364</v>
+        <v>9.58768465917528</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.776229172445161</v>
+        <v>7.18026735371682</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.579223366648004</v>
+        <v>6.14666059936935</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.478789883946361</v>
+        <v>5.56933359011649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.140760854810962</v>
+        <v>1.27525232184743</v>
       </c>
       <c r="B10" t="n">
-        <v>1.86490030445944</v>
+        <v>5.93931268617746</v>
       </c>
       <c r="C10" t="n">
-        <v>11.1556316299917</v>
+        <v>29.5385648908917</v>
       </c>
       <c r="D10" t="n">
-        <v>17.9103505241163</v>
+        <v>43.7878641839604</v>
       </c>
       <c r="E10" t="n">
-        <v>8.0357885583518</v>
+        <v>18.9860723157904</v>
       </c>
       <c r="F10" t="n">
-        <v>6.04509073816484</v>
+        <v>14.0696197631033</v>
       </c>
       <c r="G10" t="n">
-        <v>5.17432042918028</v>
+        <v>11.9593927868023</v>
       </c>
       <c r="H10" t="n">
-        <v>4.68162197412933</v>
+        <v>10.7840373039188</v>
       </c>
     </row>
     <row r="11">
@@ -2659,158 +2659,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.662850409071947</v>
+        <v>-1.39930073896371</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.68241172554728</v>
+        <v>-4.67032604183747</v>
       </c>
       <c r="C5" t="n">
-        <v>-20.3182513264801</v>
+        <v>-28.8711409068487</v>
       </c>
       <c r="D5" t="n">
-        <v>-35.678477681512</v>
+        <v>-47.5040591895752</v>
       </c>
       <c r="E5" t="n">
-        <v>-16.5797075107796</v>
+        <v>-21.557590628881</v>
       </c>
       <c r="F5" t="n">
-        <v>-12.7040600478868</v>
+        <v>-16.3449277055601</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.9998632156629</v>
+        <v>-14.0754797057447</v>
       </c>
       <c r="H5" t="n">
-        <v>-10.0314009276205</v>
+        <v>-12.796007391475</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.26490855729888</v>
+        <v>-1.75859620215431</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.19488410079067</v>
+        <v>-5.5103978846865</v>
       </c>
       <c r="C6" t="n">
-        <v>-26.0571032400582</v>
+        <v>-31.7542356717616</v>
       </c>
       <c r="D6" t="n">
-        <v>-42.7891058471979</v>
+        <v>-50.6779614376664</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.3474183253352</v>
+        <v>-22.6690499991784</v>
       </c>
       <c r="F6" t="n">
-        <v>-14.6313398220338</v>
+        <v>-17.0609602738295</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.5794402712026</v>
+        <v>-14.631900252215</v>
       </c>
       <c r="H6" t="n">
-        <v>-11.4240449086074</v>
+        <v>-13.2689733789011</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.7628342006873</v>
+        <v>-2.0079363666509</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.27847645569277</v>
+        <v>-5.91884289833305</v>
       </c>
       <c r="C7" t="n">
-        <v>-29.8525897263382</v>
+        <v>-32.6413432152664</v>
       </c>
       <c r="D7" t="n">
-        <v>-47.2632949632993</v>
+        <v>-51.1316666790342</v>
       </c>
       <c r="E7" t="n">
-        <v>-21.0493259322711</v>
+        <v>-22.6787124984681</v>
       </c>
       <c r="F7" t="n">
-        <v>-15.8045329684003</v>
+        <v>-16.9964703793059</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.5358161803719</v>
+        <v>-14.5427631938989</v>
       </c>
       <c r="H7" t="n">
-        <v>-12.2642309095544</v>
+        <v>-13.1693795195324</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.0979310193912</v>
+        <v>-0.214968744458064</v>
       </c>
       <c r="B8" t="n">
-        <v>2.37190194988473</v>
+        <v>-1.58058131019197</v>
       </c>
       <c r="C8" t="n">
-        <v>9.15177865459531</v>
+        <v>-8.49297084845766</v>
       </c>
       <c r="D8" t="n">
-        <v>11.4984042600725</v>
+        <v>-13.1882989772666</v>
       </c>
       <c r="E8" t="n">
-        <v>4.52450891118444</v>
+        <v>-5.90080778180217</v>
       </c>
       <c r="F8" t="n">
-        <v>3.16473022811205</v>
+        <v>-4.468916026185</v>
       </c>
       <c r="G8" t="n">
-        <v>2.59449767732279</v>
+        <v>-3.85719488730035</v>
       </c>
       <c r="H8" t="n">
-        <v>2.28437544991155</v>
+        <v>-3.51645502114381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.562123838784948</v>
+        <v>-0.319681123382606</v>
       </c>
       <c r="B9" t="n">
-        <v>0.829098470282277</v>
+        <v>-1.7683498775141</v>
       </c>
       <c r="C9" t="n">
-        <v>2.52993872322368</v>
+        <v>-9.13244014936388</v>
       </c>
       <c r="D9" t="n">
-        <v>2.50369595089356</v>
+        <v>-13.860732673856</v>
       </c>
       <c r="E9" t="n">
-        <v>0.811639799634945</v>
+        <v>-6.10553292127197</v>
       </c>
       <c r="F9" t="n">
-        <v>0.494310455056549</v>
+        <v>-4.57246564421565</v>
       </c>
       <c r="G9" t="n">
-        <v>0.368855199097002</v>
+        <v>-3.91425458589947</v>
       </c>
       <c r="H9" t="n">
-        <v>0.304898158702891</v>
+        <v>-3.54660700604717</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0435851886954355</v>
+        <v>-0.394869107300163</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.577447698631834</v>
+        <v>-1.83904867937815</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.45422958863769</v>
+        <v>-9.14632073164718</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.54576063240992</v>
+        <v>-13.5584735229911</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.48820143286818</v>
+        <v>-5.87884710973258</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.87180179360083</v>
+        <v>-4.35651682473394</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.60217648990085</v>
+        <v>-3.70310617959544</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.44961734863828</v>
+        <v>-3.33916912781715</v>
       </c>
     </row>
     <row r="11">
@@ -2959,158 +2959,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.642416454135322</v>
+        <v>-1.35616393486517</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.59971994536411</v>
+        <v>-4.52635203115251</v>
       </c>
       <c r="C5" t="n">
-        <v>-19.6918924583041</v>
+        <v>-27.9811186873777</v>
       </c>
       <c r="D5" t="n">
-        <v>-34.57860296593</v>
+        <v>-46.0396325384012</v>
       </c>
       <c r="E5" t="n">
-        <v>-16.0685982295588</v>
+        <v>-20.8930261518529</v>
       </c>
       <c r="F5" t="n">
-        <v>-12.3124269026434</v>
+        <v>-15.8410560753903</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.660766028452</v>
+        <v>-13.6415692576524</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.72215891509285</v>
+        <v>-12.4015397486591</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.2270913919399</v>
+        <v>-1.70601918147341</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.06946900672242</v>
+        <v>-5.34565267302947</v>
       </c>
       <c r="C6" t="n">
-        <v>-25.2780700235309</v>
+        <v>-30.8048744121528</v>
       </c>
       <c r="D6" t="n">
-        <v>-41.509833379596</v>
+        <v>-49.1628346431754</v>
       </c>
       <c r="E6" t="n">
-        <v>-18.7689855889475</v>
+        <v>-21.9913099306151</v>
       </c>
       <c r="F6" t="n">
-        <v>-14.1939044087934</v>
+        <v>-16.5508861248837</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.203350813894</v>
+        <v>-14.1944480837074</v>
       </c>
       <c r="H6" t="n">
-        <v>-11.0824984838605</v>
+        <v>-12.8722688443967</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.71141499661432</v>
+        <v>-1.94936790356905</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.12451129098025</v>
+        <v>-5.7461992142324</v>
       </c>
       <c r="C7" t="n">
-        <v>-28.981834891512</v>
+        <v>-31.6892446643377</v>
       </c>
       <c r="D7" t="n">
-        <v>-45.8846962227418</v>
+        <v>-49.6402333936261</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.4353489710299</v>
+        <v>-22.0172087985646</v>
       </c>
       <c r="F7" t="n">
-        <v>-15.343538675424</v>
+        <v>-16.5007090770727</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.1409969204542</v>
+        <v>-14.1185728144744</v>
       </c>
       <c r="H7" t="n">
-        <v>-11.9065018663519</v>
+        <v>-12.7852486620954</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.07567952096244</v>
+        <v>-0.210612025688798</v>
       </c>
       <c r="B8" t="n">
-        <v>2.32383119536656</v>
+        <v>-1.54854805680984</v>
       </c>
       <c r="C8" t="n">
-        <v>8.96630180335742</v>
+        <v>-8.32084589328994</v>
       </c>
       <c r="D8" t="n">
-        <v>11.2653689237832</v>
+        <v>-12.9210149596119</v>
       </c>
       <c r="E8" t="n">
-        <v>4.43281179984501</v>
+        <v>-5.78121755913227</v>
       </c>
       <c r="F8" t="n">
-        <v>3.1005914175178</v>
+        <v>-4.37834560219784</v>
       </c>
       <c r="G8" t="n">
-        <v>2.54191562984372</v>
+        <v>-3.77902206545788</v>
       </c>
       <c r="H8" t="n">
-        <v>2.23807857348065</v>
+        <v>-3.44518789051736</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.55082924692164</v>
+        <v>-0.313257862944453</v>
       </c>
       <c r="B9" t="n">
-        <v>0.812439634292378</v>
+        <v>-1.7328189344016</v>
       </c>
       <c r="C9" t="n">
-        <v>2.47910539550046</v>
+        <v>-8.94894466832165</v>
       </c>
       <c r="D9" t="n">
-        <v>2.45338991161175</v>
+        <v>-13.5822329773905</v>
       </c>
       <c r="E9" t="n">
-        <v>0.795331755669564</v>
+        <v>-5.98285621251894</v>
       </c>
       <c r="F9" t="n">
-        <v>0.48437841791737</v>
+        <v>-4.48059241327059</v>
       </c>
       <c r="G9" t="n">
-        <v>0.361443898164694</v>
+        <v>-3.83560659955473</v>
       </c>
       <c r="H9" t="n">
-        <v>0.298771928102411</v>
+        <v>-3.4753460562902</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0427235704238937</v>
+        <v>-0.387063096866328</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.566032364595364</v>
+        <v>-1.80269325700107</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.38594429685043</v>
+        <v>-8.96551075248575</v>
       </c>
       <c r="D10" t="n">
-        <v>-5.43612869473789</v>
+        <v>-13.2904414489932</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.43901316772571</v>
+        <v>-5.76263051788204</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.83479888792705</v>
+        <v>-4.27039457520785</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.5705036996881</v>
+        <v>-3.62990094540236</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.42096043945157</v>
+        <v>-3.27315842054684</v>
       </c>
     </row>
     <row r="11">
@@ -3259,158 +3259,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.35740768599392</v>
+        <v>2.86553580127631</v>
       </c>
       <c r="B5" t="n">
-        <v>5.49313426291163</v>
+        <v>9.56405303296667</v>
       </c>
       <c r="C5" t="n">
-        <v>41.6084083815157</v>
+        <v>59.1233075125345</v>
       </c>
       <c r="D5" t="n">
-        <v>73.0636040449215</v>
+        <v>97.2804333788087</v>
       </c>
       <c r="E5" t="n">
-        <v>33.952490786229</v>
+        <v>44.1463696946703</v>
       </c>
       <c r="F5" t="n">
-        <v>26.0158076638647</v>
+        <v>33.4717006897616</v>
       </c>
       <c r="G5" t="n">
-        <v>22.525895238909</v>
+        <v>28.8242476358727</v>
       </c>
       <c r="H5" t="n">
-        <v>20.5426451188336</v>
+        <v>26.2041005715633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.00628096586073</v>
+        <v>4.17961777447463</v>
       </c>
       <c r="B6" t="n">
-        <v>9.96989082999692</v>
+        <v>13.0964441496287</v>
       </c>
       <c r="C6" t="n">
-        <v>61.9293569041332</v>
+        <v>75.4696090358696</v>
       </c>
       <c r="D6" t="n">
-        <v>101.695947673343</v>
+        <v>120.445221102794</v>
       </c>
       <c r="E6" t="n">
-        <v>45.9825930612759</v>
+        <v>53.8770436277254</v>
       </c>
       <c r="F6" t="n">
-        <v>34.7739907032875</v>
+        <v>40.5484173812893</v>
       </c>
       <c r="G6" t="n">
-        <v>29.8972851675968</v>
+        <v>34.775322665647</v>
       </c>
       <c r="H6" t="n">
-        <v>27.1512818564715</v>
+        <v>31.5360836760292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.4314081697215</v>
+        <v>9.60370015481928</v>
       </c>
       <c r="B7" t="n">
-        <v>25.2462707467661</v>
+        <v>28.3090606869589</v>
       </c>
       <c r="C7" t="n">
-        <v>142.781078792242</v>
+        <v>156.119326337429</v>
       </c>
       <c r="D7" t="n">
-        <v>226.054231944304</v>
+        <v>244.556153948569</v>
       </c>
       <c r="E7" t="n">
-        <v>100.676205716503</v>
+        <v>108.469351095978</v>
       </c>
       <c r="F7" t="n">
-        <v>75.5910387581826</v>
+        <v>81.291921359727</v>
       </c>
       <c r="G7" t="n">
-        <v>64.7400595487313</v>
+        <v>69.5561569860391</v>
       </c>
       <c r="H7" t="n">
-        <v>58.658231526171</v>
+        <v>62.9874403547751</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.74838090523776</v>
+        <v>0.733911987837223</v>
       </c>
       <c r="B8" t="n">
-        <v>-8.09776918678738</v>
+        <v>5.39616851847802</v>
       </c>
       <c r="C8" t="n">
-        <v>-31.2445424639421</v>
+        <v>28.9953459687768</v>
       </c>
       <c r="D8" t="n">
-        <v>-39.2560171886384</v>
+        <v>45.0253860997245</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.4468564133163</v>
+        <v>20.1455964210304</v>
       </c>
       <c r="F8" t="n">
-        <v>-10.8045169940291</v>
+        <v>15.2570600555136</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.85772000298621</v>
+        <v>13.1686193467367</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.79895017593215</v>
+        <v>12.0053196626977</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.30184533104388</v>
+        <v>1.30906474785289</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.39508185050483</v>
+        <v>7.241229829367</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.3598659869457</v>
+        <v>37.396501034878</v>
       </c>
       <c r="D9" t="n">
-        <v>-10.252404252015</v>
+        <v>56.7584233024653</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.323590202681</v>
+        <v>25.0015948064804</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.02415577236067</v>
+        <v>18.7238255492718</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.51042805746852</v>
+        <v>16.0285119068162</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.24852986945217</v>
+        <v>14.5230289388962</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.224342363885382</v>
+        <v>2.0324764354251</v>
       </c>
       <c r="B10" t="n">
-        <v>2.9722478118996</v>
+        <v>9.46598008132956</v>
       </c>
       <c r="C10" t="n">
-        <v>17.7796644803551</v>
+        <v>47.0780849001232</v>
       </c>
       <c r="D10" t="n">
-        <v>28.5452257304929</v>
+        <v>69.7883866485068</v>
       </c>
       <c r="E10" t="n">
-        <v>12.8073092713512</v>
+        <v>30.2596936480918</v>
       </c>
       <c r="F10" t="n">
-        <v>9.63456742233364</v>
+        <v>22.4239314322299</v>
       </c>
       <c r="G10" t="n">
-        <v>8.24674784862367</v>
+        <v>19.0606859558235</v>
       </c>
       <c r="H10" t="n">
-        <v>7.46149305433268</v>
+        <v>17.1874234796198</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_1.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">p_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_median</t>
   </si>
   <si>
     <t xml:space="preserve">n_viol</t>
@@ -472,10 +478,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>2.8608123353375</v>
@@ -490,39 +502,45 @@
         <v>47.1982251998119</v>
       </c>
       <c r="F2" t="n">
+        <v>0.00472041629731956</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00472041629731956</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.579166666666667</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>305.958941322087</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>219.986816410931</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>172.032128026305</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>143.781143146268</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>125.127863454262</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>111.924950718939</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>102.155619670662</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>2.71758977548235</v>
@@ -537,39 +555,45 @@
         <v>47.275248817099</v>
       </c>
       <c r="F3" t="n">
+        <v>0.00471074773649793</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00471074773649793</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.570833333333333</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>320.230815000711</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>234.886769975759</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>184.516741111159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>153.477532364993</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>132.784947783905</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>118.233936086707</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>107.566109931883</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>2.55330415124591</v>
@@ -584,39 +608,45 @@
         <v>47.2199436208928</v>
       </c>
       <c r="F4" t="n">
+        <v>0.00470593574627323</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00470593574627323</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.570833333333333</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>330.83460335654</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>242.607747121165</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>188.575514578095</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>154.598681934824</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>132.033821271404</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>116.341275831496</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>104.956497497692</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>2.6782590146469</v>
@@ -631,39 +661,45 @@
         <v>62.5219375219375</v>
       </c>
       <c r="F5" t="n">
+        <v>0.00467948477137695</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00467948477137695</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.566666666666667</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>297.216762939616</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>188.88876163263</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>130.412949014979</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96.671736245233</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74.9946715363091</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>59.9962744177698</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>49.0886568390619</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>2.58638701212484</v>
@@ -678,39 +714,45 @@
         <v>62.5718937045485</v>
       </c>
       <c r="F6" t="n">
+        <v>0.00466689124847471</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00466689124847471</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>307.224346263849</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>200.100040166797</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>139.771055953038</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>103.976596989415</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>80.9258040028391</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>65.1175728470531</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>53.731219933595</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>2.50558152393507</v>
@@ -725,39 +767,45 @@
         <v>62.5280067021256</v>
       </c>
       <c r="F7" t="n">
+        <v>0.00465124894575709</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00465124894575709</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.55</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>314.668573595124</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>206.219833547116</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>143.504334912525</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>105.902653793024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>81.8196981772802</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>65.4510274707899</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>53.7423740102523</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>2.48700164121959</v>
@@ -772,39 +820,45 @@
         <v>59.173189165927</v>
       </c>
       <c r="F8" t="n">
+        <v>0.00455606024810203</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00455606024810203</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.5625</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>266.000807930288</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>155.562935242816</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>72.7835029649257</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>24.721654691844</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-3.38530595420321</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-21.3416730890296</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-33.7208561709312</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
         <v>2.42640219198197</v>
@@ -819,39 +873,45 @@
         <v>59.180642907058</v>
       </c>
       <c r="F9" t="n">
+        <v>0.00457184614744377</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.00457184614744377</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.558333333333333</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>270.271568685561</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>159.254117451636</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>75.9090207918885</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>27.1105522435488</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-1.66299881454391</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-20.1584247153941</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-32.9580172322294</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
         <v>2.36303070776168</v>
@@ -866,39 +926,45 @@
         <v>59.1205784586965</v>
       </c>
       <c r="F10" t="n">
+        <v>0.00457198294743218</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00457198294743218</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.554166666666667</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>273.431157313886</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>160.852162605097</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>76.2284892037397</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>26.2981452880862</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-3.31648855059343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-22.3938021710369</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-35.5887361600515</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>2.29566809935743</v>
@@ -913,33 +979,39 @@
         <v>70.6189168353089</v>
       </c>
       <c r="F11" t="n">
+        <v>0.00451864943562772</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00451864943562772</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.5375</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>257.220473555428</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>124.3524000611</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>30.9898919142668</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-22.5932774757253</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-53.7388405830577</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-73.4983798489656</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-87.0201996341448</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-96.8187561851092</v>
       </c>
     </row>
@@ -1000,6 +1072,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1015,33 +1093,39 @@
         <v>-23.4206916354969</v>
       </c>
       <c r="E2" t="n">
+        <v>0.000201766861691844</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000201766861691844</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0416666666666667</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>48.7384677666593</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>95.6344163498311</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>141.042236112038</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>166.374420621993</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>178.86670403732</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>185.423330567905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>189.175819304807</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>191.49661822277</v>
       </c>
     </row>
@@ -1059,33 +1143,39 @@
         <v>-23.3436680182098</v>
       </c>
       <c r="E3" t="n">
+        <v>0.000192098300870209</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000192098300870209</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0333333333333333</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>63.0103414452833</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>110.534369914659</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>153.526849196892</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>176.070809840718</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>186.523788366962</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>191.732315935673</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>194.586309566028</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>196.283890100564</v>
       </c>
     </row>
@@ -1103,33 +1193,39 @@
         <v>-23.398973214416</v>
       </c>
       <c r="E4" t="n">
+        <v>0.000187286310645513</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000187286310645513</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0333333333333333</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>73.6141298011119</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>118.255347060064</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>157.585622663829</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>177.191959410549</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>185.772661854462</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>189.839655680462</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>191.976697131837</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>193.202523601104</v>
       </c>
     </row>
@@ -1147,33 +1243,39 @@
         <v>-8.09697931337135</v>
       </c>
       <c r="E5" t="n">
+        <v>0.00016083533574923</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.00016083533574923</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0291666666666667</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>39.9962893841882</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>64.5363615715299</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>99.4230571007118</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>119.265013720958</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>128.733512119367</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>133.494654266735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>136.108856473207</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>137.669294341224</v>
       </c>
     </row>
@@ -1191,33 +1293,39 @@
         <v>-8.04702313076032</v>
       </c>
       <c r="E6" t="n">
+        <v>0.000148241812846986</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000148241812846986</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.025</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>50.0038727084208</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>75.7476401056969</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>108.781164038771</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>126.56987446514</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>134.664644585897</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>138.615952696019</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>140.75141956774</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>142.01322774245</v>
       </c>
     </row>
@@ -1235,33 +1343,39 @@
         <v>-8.09091013318326</v>
       </c>
       <c r="E7" t="n">
+        <v>0.000132599510129372</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.000132599510129372</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0125000000000001</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>57.4481000396968</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>81.8674334860162</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>112.514442998258</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.49593126875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>135.558538760338</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>138.949407319755</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>140.762573644397</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>141.8224565217</v>
       </c>
     </row>
@@ -1279,33 +1393,39 @@
         <v>-11.4457276693819</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0000374108124743125</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0000374108124743125</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.025</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>8.78033437486027</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>31.210535181716</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>41.7936110506589</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>47.3149321675693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>50.3535346288545</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>52.156706759936</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>53.2993434632136</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>54.0623310393967</v>
       </c>
     </row>
@@ -1323,33 +1443,39 @@
         <v>-11.4382739282509</v>
       </c>
       <c r="E9" t="n">
+        <v>0.000053196711816055</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.000053196711816055</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0208333333333334</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>13.0510951301332</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>34.9017173905357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>44.9191288776217</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>49.7038297192741</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>52.0758417685138</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>53.3399551335716</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>54.0621824019155</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>54.5000619342742</v>
       </c>
     </row>
@@ -1367,33 +1493,39 @@
         <v>-11.4983383766124</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0000533335118044573</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0000533335118044573</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0166666666666667</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>16.2106837584587</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>36.499762543997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>45.2385972894729</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>48.8914227638114</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>50.4223520324643</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>51.1045776779287</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>51.4314634740933</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>51.5989135914275</v>
       </c>
     </row>
@@ -1438,6 +1570,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,6 +1636,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1513,33 +1657,39 @@
         <v>-0.331648978560753</v>
       </c>
       <c r="E2" t="n">
+        <v>0.0446520281261462</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0446520281261462</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0775193798449614</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.189481292421914</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.769059674785861</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>4.55123356035671</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7.36389046700948</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.3284436749406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2.52282201252514</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>2.17392996224038</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.97788760946944</v>
       </c>
     </row>
@@ -1557,33 +1707,39 @@
         <v>-0.330558284724897</v>
       </c>
       <c r="E3" t="n">
+        <v>0.0425123266601723</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0425123266601723</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.062015503875969</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.244966275717961</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.888880068742929</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.95409437443739</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7.79306189772123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.47093064054248</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.60866044026644</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>2.23610506967484</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>2.02733331675203</v>
       </c>
     </row>
@@ -1601,33 +1757,39 @@
         <v>-0.331341434604343</v>
       </c>
       <c r="E4" t="n">
+        <v>0.041447408858239</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.041447408858239</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.062015503875969</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.286190787162395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.950969559107504</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>5.08506525610956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.8426850465112</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.45695329186225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.58290939297669</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>2.20611648719442</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.99550718490658</v>
       </c>
     </row>
@@ -1645,33 +1807,39 @@
         <v>-0.11465737052091</v>
       </c>
       <c r="E5" t="n">
+        <v>0.0355936741808534</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0355936741808534</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0542635658914729</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.155494190766932</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.518979621943928</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3.20824149292823</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>5.27878320660202</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.39553944079606</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.81629383587854</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.56410646086131</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.42192793799181</v>
       </c>
     </row>
@@ -1689,33 +1857,39 @@
         <v>-0.113949965411207</v>
       </c>
       <c r="E6" t="n">
+        <v>0.0328066637960802</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0328066637960802</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0465116279069768</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.19440082671975</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.609136937192032</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3.51021437376138</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>5.60210330710671</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.50590900594072</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.88597290145532</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.61745686816963</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.46679458958276</v>
       </c>
     </row>
@@ -1733,33 +1907,39 @@
         <v>-0.114571427823683</v>
       </c>
       <c r="E7" t="n">
+        <v>0.0293449430008618</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0293449430008618</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0232558139534885</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.223341864065566</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.658350248533931</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>3.6306820078472</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>5.68735241740861</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.5225430487437</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.89050979906343</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.61758504618697</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.4648241942971</v>
       </c>
     </row>
@@ -1777,33 +1957,39 @@
         <v>-0.162077360887233</v>
       </c>
       <c r="E8" t="n">
+        <v>0.00827920222784787</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00827920222784787</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0465116279069768</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.0341354412947546</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.250984582254792</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1.34862074273381</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2.09420400463835</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.937004484699089</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.709630700256449</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.612493923104034</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.558386961055708</v>
       </c>
     </row>
@@ -1821,33 +2007,39 @@
         <v>-0.161971812098537</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0117727016830782</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0117727016830782</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0387596899224807</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.0507389437152283</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.280667822843683</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1.4494767842976</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2.19993888769246</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.969054062266684</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.725729672452396</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.621260151426987</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.562908098406829</v>
       </c>
     </row>
@@ -1865,33 +2057,39 @@
         <v>-0.162822355423941</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0118029762131898</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0118029762131898</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0310077519379846</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.0630225251294605</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.29351876221177</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1.4597855782984</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2.16398098134905</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.938285074359438</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.695315703324961</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.591029021886003</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.532943363709143</v>
       </c>
     </row>
@@ -1936,6 +2134,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1955,28 +2159,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2255,28 +2459,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2555,28 +2759,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2855,28 +3059,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -3155,262 +3359,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.44430867224269</v>
+        <v>4.24350920604573</v>
       </c>
       <c r="B2" t="n">
-        <v>9.9208698047376</v>
+        <v>17.2233985120048</v>
       </c>
       <c r="C2" t="n">
-        <v>58.7109129286015</v>
+        <v>101.926692948841</v>
       </c>
       <c r="D2" t="n">
-        <v>94.9941870244221</v>
+        <v>164.917267502515</v>
       </c>
       <c r="E2" t="n">
-        <v>42.9369234067336</v>
+        <v>74.5418251896068</v>
       </c>
       <c r="F2" t="n">
-        <v>32.5444039615743</v>
+        <v>56.4996063649769</v>
       </c>
       <c r="G2" t="n">
-        <v>28.0436965129009</v>
+        <v>48.6860295818775</v>
       </c>
       <c r="H2" t="n">
-        <v>25.5147501621558</v>
+        <v>44.2955828094017</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.95008119595212</v>
+        <v>5.76224109482715</v>
       </c>
       <c r="B3" t="n">
-        <v>14.3331911084797</v>
+        <v>20.9087607895071</v>
       </c>
       <c r="C3" t="n">
-        <v>79.8847717878028</v>
+        <v>116.533127298314</v>
       </c>
       <c r="D3" t="n">
-        <v>125.663123100755</v>
+        <v>183.312994370223</v>
       </c>
       <c r="E3" t="n">
-        <v>55.9687565787474</v>
+        <v>81.6452759287395</v>
       </c>
       <c r="F3" t="n">
-        <v>42.0646495992964</v>
+        <v>61.3624481463718</v>
       </c>
       <c r="G3" t="n">
-        <v>36.0571942485068</v>
+        <v>52.5989811743176</v>
       </c>
       <c r="H3" t="n">
-        <v>32.6907497326265</v>
+        <v>47.6881289739274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.61482644299362</v>
+        <v>6.90491384253339</v>
       </c>
       <c r="B4" t="n">
-        <v>15.3343841406085</v>
+        <v>22.9440050730329</v>
       </c>
       <c r="C4" t="n">
-        <v>81.9966772547666</v>
+        <v>122.687169021876</v>
       </c>
       <c r="D4" t="n">
-        <v>126.463296374993</v>
+        <v>189.220153021755</v>
       </c>
       <c r="E4" t="n">
-        <v>55.7433718312788</v>
+        <v>83.4057758275297</v>
       </c>
       <c r="F4" t="n">
-        <v>41.6494139617491</v>
+        <v>62.3177531268823</v>
       </c>
       <c r="G4" t="n">
-        <v>35.57362835601</v>
+        <v>53.2268855392124</v>
       </c>
       <c r="H4" t="n">
-        <v>32.1775533566187</v>
+        <v>48.1455232034346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.86553580127631</v>
+        <v>4.36859060901825</v>
       </c>
       <c r="B5" t="n">
-        <v>9.56405303296667</v>
+        <v>14.5806701299496</v>
       </c>
       <c r="C5" t="n">
-        <v>59.1233075125345</v>
+        <v>90.1351593158654</v>
       </c>
       <c r="D5" t="n">
-        <v>97.2804333788087</v>
+        <v>148.306780013219</v>
       </c>
       <c r="E5" t="n">
-        <v>44.1463696946703</v>
+        <v>67.302392796658</v>
       </c>
       <c r="F5" t="n">
-        <v>33.4717006897616</v>
+        <v>51.0285571152291</v>
       </c>
       <c r="G5" t="n">
-        <v>28.8242476358727</v>
+        <v>43.9433831111111</v>
       </c>
       <c r="H5" t="n">
-        <v>26.2041005715633</v>
+        <v>39.9488945919691</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.17961777447463</v>
+        <v>5.92565059123682</v>
       </c>
       <c r="B6" t="n">
-        <v>13.0964441496287</v>
+        <v>18.5674758329072</v>
       </c>
       <c r="C6" t="n">
-        <v>75.4696090358696</v>
+        <v>106.996992915225</v>
       </c>
       <c r="D6" t="n">
-        <v>120.445221102794</v>
+        <v>170.761139929628</v>
       </c>
       <c r="E6" t="n">
-        <v>53.8770436277254</v>
+        <v>76.3841462672631</v>
       </c>
       <c r="F6" t="n">
-        <v>40.5484173812893</v>
+        <v>57.4874944059583</v>
       </c>
       <c r="G6" t="n">
-        <v>34.775322665647</v>
+        <v>49.3026928377547</v>
       </c>
       <c r="H6" t="n">
-        <v>31.5360836760292</v>
+        <v>44.7102637043517</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.60370015481928</v>
+        <v>7.6109149047932</v>
       </c>
       <c r="B7" t="n">
-        <v>28.3090606869589</v>
+        <v>22.4348791038578</v>
       </c>
       <c r="C7" t="n">
-        <v>156.119326337429</v>
+        <v>123.724282161345</v>
       </c>
       <c r="D7" t="n">
-        <v>244.556153948569</v>
+        <v>193.810307187906</v>
       </c>
       <c r="E7" t="n">
-        <v>108.469351095978</v>
+        <v>85.9617634517</v>
       </c>
       <c r="F7" t="n">
-        <v>81.291921359727</v>
+        <v>64.423699817986</v>
       </c>
       <c r="G7" t="n">
-        <v>69.5561569860391</v>
+        <v>55.1231278976913</v>
       </c>
       <c r="H7" t="n">
-        <v>62.9874403547751</v>
+        <v>49.9174319150692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.733911987837223</v>
+        <v>4.12303508904962</v>
       </c>
       <c r="B8" t="n">
-        <v>5.39616851847802</v>
+        <v>30.3150684507478</v>
       </c>
       <c r="C8" t="n">
-        <v>28.9953459687768</v>
+        <v>162.892595882921</v>
       </c>
       <c r="D8" t="n">
-        <v>45.0253860997245</v>
+        <v>252.94756028477</v>
       </c>
       <c r="E8" t="n">
-        <v>20.1455964210304</v>
+        <v>113.175697236551</v>
       </c>
       <c r="F8" t="n">
-        <v>15.2570600555136</v>
+        <v>85.7124491861716</v>
       </c>
       <c r="G8" t="n">
-        <v>13.1686193467367</v>
+        <v>73.9798239308437</v>
       </c>
       <c r="H8" t="n">
-        <v>12.0053196626977</v>
+        <v>67.444537008351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.30906474785289</v>
+        <v>4.30988103505239</v>
       </c>
       <c r="B9" t="n">
-        <v>7.241229829367</v>
+        <v>23.8405618692527</v>
       </c>
       <c r="C9" t="n">
-        <v>37.396501034878</v>
+        <v>123.121847755731</v>
       </c>
       <c r="D9" t="n">
-        <v>56.7584233024653</v>
+        <v>186.86780204875</v>
       </c>
       <c r="E9" t="n">
-        <v>25.0015948064804</v>
+        <v>82.3136513906213</v>
       </c>
       <c r="F9" t="n">
-        <v>18.7238255492718</v>
+        <v>61.6451254766388</v>
       </c>
       <c r="G9" t="n">
-        <v>16.0285119068162</v>
+        <v>52.7712472592395</v>
       </c>
       <c r="H9" t="n">
-        <v>14.5230289388962</v>
+        <v>47.8146914412974</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.0324764354251</v>
+        <v>5.3395452122519</v>
       </c>
       <c r="B10" t="n">
-        <v>9.46598008132956</v>
+        <v>24.8681990804798</v>
       </c>
       <c r="C10" t="n">
-        <v>47.0780849001232</v>
+        <v>123.679447618228</v>
       </c>
       <c r="D10" t="n">
-        <v>69.7883866485068</v>
+        <v>183.341975978128</v>
       </c>
       <c r="E10" t="n">
-        <v>30.2596936480918</v>
+        <v>79.4956337631951</v>
       </c>
       <c r="F10" t="n">
-        <v>22.4239314322299</v>
+        <v>58.9102011870489</v>
       </c>
       <c r="G10" t="n">
-        <v>19.0606859558235</v>
+        <v>50.074575362232</v>
       </c>
       <c r="H10" t="n">
-        <v>17.1874234796198</v>
+        <v>45.1533032078453</v>
       </c>
     </row>
     <row r="11">
@@ -3455,262 +3659,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#NUM!</v>
+      <c r="A2" t="n">
+        <v>4.24350920604573</v>
+      </c>
+      <c r="B2" t="n">
+        <v>17.2233985120048</v>
+      </c>
+      <c r="C2" t="n">
+        <v>101.926692948841</v>
+      </c>
+      <c r="D2" t="n">
+        <v>164.917267502515</v>
+      </c>
+      <c r="E2" t="n">
+        <v>74.5418251896068</v>
+      </c>
+      <c r="F2" t="n">
+        <v>56.4996063649769</v>
+      </c>
+      <c r="G2" t="n">
+        <v>48.6860295818775</v>
+      </c>
+      <c r="H2" t="n">
+        <v>44.2955828094017</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
+      <c r="A3" t="n">
+        <v>5.76224109482715</v>
+      </c>
+      <c r="B3" t="n">
+        <v>20.9087607895071</v>
+      </c>
+      <c r="C3" t="n">
+        <v>116.533127298314</v>
+      </c>
+      <c r="D3" t="n">
+        <v>183.312994370223</v>
+      </c>
+      <c r="E3" t="n">
+        <v>81.6452759287395</v>
+      </c>
+      <c r="F3" t="n">
+        <v>61.3624481463718</v>
+      </c>
+      <c r="G3" t="n">
+        <v>52.5989811743176</v>
+      </c>
+      <c r="H3" t="n">
+        <v>47.6881289739274</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
+      <c r="A4" t="n">
+        <v>6.90491384253339</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22.9440050730329</v>
+      </c>
+      <c r="C4" t="n">
+        <v>122.687169021876</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.220153021755</v>
+      </c>
+      <c r="E4" t="n">
+        <v>83.4057758275297</v>
+      </c>
+      <c r="F4" t="n">
+        <v>62.3177531268823</v>
+      </c>
+      <c r="G4" t="n">
+        <v>53.2268855392124</v>
+      </c>
+      <c r="H4" t="n">
+        <v>48.1455232034346</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#NUM!</v>
+      <c r="A5" t="n">
+        <v>4.36859060901825</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.5806701299496</v>
+      </c>
+      <c r="C5" t="n">
+        <v>90.1351593158654</v>
+      </c>
+      <c r="D5" t="n">
+        <v>148.306780013219</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67.302392796658</v>
+      </c>
+      <c r="F5" t="n">
+        <v>51.0285571152291</v>
+      </c>
+      <c r="G5" t="n">
+        <v>43.9433831111111</v>
+      </c>
+      <c r="H5" t="n">
+        <v>39.9488945919691</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
+      <c r="A6" t="n">
+        <v>5.92565059123682</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18.5674758329072</v>
+      </c>
+      <c r="C6" t="n">
+        <v>106.996992915225</v>
+      </c>
+      <c r="D6" t="n">
+        <v>170.761139929628</v>
+      </c>
+      <c r="E6" t="n">
+        <v>76.3841462672631</v>
+      </c>
+      <c r="F6" t="n">
+        <v>57.4874944059583</v>
+      </c>
+      <c r="G6" t="n">
+        <v>49.3026928377547</v>
+      </c>
+      <c r="H6" t="n">
+        <v>44.7102637043517</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
+      <c r="A7" t="n">
+        <v>7.6109149047932</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.4348791038578</v>
+      </c>
+      <c r="C7" t="n">
+        <v>123.724282161345</v>
+      </c>
+      <c r="D7" t="n">
+        <v>193.810307187906</v>
+      </c>
+      <c r="E7" t="n">
+        <v>85.9617634517</v>
+      </c>
+      <c r="F7" t="n">
+        <v>64.423699817986</v>
+      </c>
+      <c r="G7" t="n">
+        <v>55.1231278976913</v>
+      </c>
+      <c r="H7" t="n">
+        <v>49.9174319150692</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#NUM!</v>
+      <c r="A8" t="n">
+        <v>4.12303508904962</v>
+      </c>
+      <c r="B8" t="n">
+        <v>30.3150684507478</v>
+      </c>
+      <c r="C8" t="n">
+        <v>162.892595882921</v>
+      </c>
+      <c r="D8" t="n">
+        <v>252.94756028477</v>
+      </c>
+      <c r="E8" t="n">
+        <v>113.175697236551</v>
+      </c>
+      <c r="F8" t="n">
+        <v>85.7124491861716</v>
+      </c>
+      <c r="G8" t="n">
+        <v>73.9798239308437</v>
+      </c>
+      <c r="H8" t="n">
+        <v>67.444537008351</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
+      <c r="A9" t="n">
+        <v>4.30988103505239</v>
+      </c>
+      <c r="B9" t="n">
+        <v>23.8405618692527</v>
+      </c>
+      <c r="C9" t="n">
+        <v>123.121847755731</v>
+      </c>
+      <c r="D9" t="n">
+        <v>186.86780204875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>82.3136513906213</v>
+      </c>
+      <c r="F9" t="n">
+        <v>61.6451254766388</v>
+      </c>
+      <c r="G9" t="n">
+        <v>52.7712472592395</v>
+      </c>
+      <c r="H9" t="n">
+        <v>47.8146914412974</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
+      <c r="A10" t="n">
+        <v>5.3395452122519</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24.8681990804798</v>
+      </c>
+      <c r="C10" t="n">
+        <v>123.679447618228</v>
+      </c>
+      <c r="D10" t="n">
+        <v>183.341975978128</v>
+      </c>
+      <c r="E10" t="n">
+        <v>79.4956337631951</v>
+      </c>
+      <c r="F10" t="n">
+        <v>58.9102011870489</v>
+      </c>
+      <c r="G10" t="n">
+        <v>50.074575362232</v>
+      </c>
+      <c r="H10" t="n">
+        <v>45.1533032078453</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_1.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_1.xlsx
@@ -13,8 +13,10 @@
     <sheet name="elast_nmax" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="elast_pmean" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="elast_pmax" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="elast_nviol" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="elast_pviol" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nmedian" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="elast_pmedian" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nviol" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="elast_pviol" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1021,6 +1023,606 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.44430867224269</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.9208698047376</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58.7109129286015</v>
+      </c>
+      <c r="D2" t="n">
+        <v>94.9941870244221</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42.9369234067336</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32.5444039615743</v>
+      </c>
+      <c r="G2" t="n">
+        <v>28.0436965129009</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25.5147501621558</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.95008119595212</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.3331911084797</v>
+      </c>
+      <c r="C3" t="n">
+        <v>79.8847717878028</v>
+      </c>
+      <c r="D3" t="n">
+        <v>125.663123100755</v>
+      </c>
+      <c r="E3" t="n">
+        <v>55.9687565787474</v>
+      </c>
+      <c r="F3" t="n">
+        <v>42.0646495992964</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36.0571942485068</v>
+      </c>
+      <c r="H3" t="n">
+        <v>32.6907497326265</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4.61482644299362</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15.3343841406085</v>
+      </c>
+      <c r="C4" t="n">
+        <v>81.9966772547666</v>
+      </c>
+      <c r="D4" t="n">
+        <v>126.463296374993</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55.7433718312788</v>
+      </c>
+      <c r="F4" t="n">
+        <v>41.6494139617491</v>
+      </c>
+      <c r="G4" t="n">
+        <v>35.57362835601</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32.1775533566187</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.86553580127631</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.56405303296667</v>
+      </c>
+      <c r="C5" t="n">
+        <v>59.1233075125345</v>
+      </c>
+      <c r="D5" t="n">
+        <v>97.2804333788087</v>
+      </c>
+      <c r="E5" t="n">
+        <v>44.1463696946703</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33.4717006897616</v>
+      </c>
+      <c r="G5" t="n">
+        <v>28.8242476358727</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26.2041005715633</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4.17961777447463</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.0964441496287</v>
+      </c>
+      <c r="C6" t="n">
+        <v>75.4696090358696</v>
+      </c>
+      <c r="D6" t="n">
+        <v>120.445221102794</v>
+      </c>
+      <c r="E6" t="n">
+        <v>53.8770436277254</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40.5484173812893</v>
+      </c>
+      <c r="G6" t="n">
+        <v>34.775322665647</v>
+      </c>
+      <c r="H6" t="n">
+        <v>31.5360836760292</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>9.60370015481928</v>
+      </c>
+      <c r="B7" t="n">
+        <v>28.3090606869589</v>
+      </c>
+      <c r="C7" t="n">
+        <v>156.119326337429</v>
+      </c>
+      <c r="D7" t="n">
+        <v>244.556153948569</v>
+      </c>
+      <c r="E7" t="n">
+        <v>108.469351095978</v>
+      </c>
+      <c r="F7" t="n">
+        <v>81.291921359727</v>
+      </c>
+      <c r="G7" t="n">
+        <v>69.5561569860391</v>
+      </c>
+      <c r="H7" t="n">
+        <v>62.9874403547751</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.733911987837223</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.39616851847802</v>
+      </c>
+      <c r="C8" t="n">
+        <v>28.9953459687768</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45.0253860997245</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20.1455964210304</v>
+      </c>
+      <c r="F8" t="n">
+        <v>15.2570600555136</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.1686193467367</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12.0053196626977</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.30906474785289</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7.241229829367</v>
+      </c>
+      <c r="C9" t="n">
+        <v>37.396501034878</v>
+      </c>
+      <c r="D9" t="n">
+        <v>56.7584233024653</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25.0015948064804</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18.7238255492718</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16.0285119068162</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.5230289388962</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.0324764354251</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9.46598008132956</v>
+      </c>
+      <c r="C10" t="n">
+        <v>47.0780849001232</v>
+      </c>
+      <c r="D10" t="n">
+        <v>69.7883866485068</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30.2596936480918</v>
+      </c>
+      <c r="F10" t="n">
+        <v>22.4239314322299</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19.0606859558235</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17.1874234796198</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_1.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_1.xlsx
@@ -504,7 +504,7 @@
         <v>47.1982251998119</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00472041629731956</v>
+        <v>1.48007086300708</v>
       </c>
       <c r="G2" t="n">
         <v>0.00472041629731956</v>
@@ -557,7 +557,7 @@
         <v>47.275248817099</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00471074773649793</v>
+        <v>1.4381140684381</v>
       </c>
       <c r="G3" t="n">
         <v>0.00471074773649793</v>
@@ -610,7 +610,7 @@
         <v>47.2199436208928</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00470593574627323</v>
+        <v>1.3793850883327</v>
       </c>
       <c r="G4" t="n">
         <v>0.00470593574627323</v>
@@ -663,7 +663,7 @@
         <v>62.5219375219375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00467948477137695</v>
+        <v>1.36780509037391</v>
       </c>
       <c r="G5" t="n">
         <v>0.00467948477137695</v>
@@ -716,7 +716,7 @@
         <v>62.5718937045485</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00466689124847471</v>
+        <v>1.33820870456084</v>
       </c>
       <c r="G6" t="n">
         <v>0.00466689124847471</v>
@@ -769,7 +769,7 @@
         <v>62.5280067021256</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00465124894575709</v>
+        <v>1.32258371513147</v>
       </c>
       <c r="G7" t="n">
         <v>0.00465124894575709</v>
@@ -822,7 +822,7 @@
         <v>59.173189165927</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00455606024810203</v>
+        <v>1.40751019102974</v>
       </c>
       <c r="G8" t="n">
         <v>0.00455606024810203</v>
@@ -875,7 +875,7 @@
         <v>59.180642907058</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00457184614744377</v>
+        <v>1.34339557882221</v>
       </c>
       <c r="G9" t="n">
         <v>0.00457184614744377</v>
@@ -928,7 +928,7 @@
         <v>59.1205784586965</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00457198294743218</v>
+        <v>1.314350020105</v>
       </c>
       <c r="G10" t="n">
         <v>0.00457198294743218</v>
@@ -981,7 +981,7 @@
         <v>70.6189168353089</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00451864943562772</v>
+        <v>1.20158442520606</v>
       </c>
       <c r="G11" t="n">
         <v>0.00451864943562772</v>
@@ -1695,7 +1695,7 @@
         <v>-23.4206916354969</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000201766861691844</v>
+        <v>0.278486437801015</v>
       </c>
       <c r="F2" t="n">
         <v>0.000201766861691844</v>
@@ -1745,7 +1745,7 @@
         <v>-23.3436680182098</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000192098300870209</v>
+        <v>0.236529643232039</v>
       </c>
       <c r="F3" t="n">
         <v>0.000192098300870209</v>
@@ -1795,7 +1795,7 @@
         <v>-23.398973214416</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000187286310645513</v>
+        <v>0.177800663126641</v>
       </c>
       <c r="F4" t="n">
         <v>0.000187286310645513</v>
@@ -1845,7 +1845,7 @@
         <v>-8.09697931337135</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00016083533574923</v>
+        <v>0.166220665167852</v>
       </c>
       <c r="F5" t="n">
         <v>0.00016083533574923</v>
@@ -1895,7 +1895,7 @@
         <v>-8.04702313076032</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000148241812846986</v>
+        <v>0.136624279354775</v>
       </c>
       <c r="F6" t="n">
         <v>0.000148241812846986</v>
@@ -1945,7 +1945,7 @@
         <v>-8.09091013318326</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000132599510129372</v>
+        <v>0.120999289925409</v>
       </c>
       <c r="F7" t="n">
         <v>0.000132599510129372</v>
@@ -1995,7 +1995,7 @@
         <v>-11.4457276693819</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0000374108124743125</v>
+        <v>0.205925765823682</v>
       </c>
       <c r="F8" t="n">
         <v>0.0000374108124743125</v>
@@ -2045,7 +2045,7 @@
         <v>-11.4382739282509</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000053196711816055</v>
+        <v>0.141811153616143</v>
       </c>
       <c r="F9" t="n">
         <v>0.000053196711816055</v>
@@ -2095,7 +2095,7 @@
         <v>-11.4983383766124</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0000533335118044573</v>
+        <v>0.112765594898938</v>
       </c>
       <c r="F10" t="n">
         <v>0.0000533335118044573</v>
@@ -2259,7 +2259,7 @@
         <v>-0.331648978560753</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0446520281261462</v>
+        <v>0.231766018233182</v>
       </c>
       <c r="F2" t="n">
         <v>0.0446520281261462</v>
@@ -2309,7 +2309,7 @@
         <v>-0.330558284724897</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0425123266601723</v>
+        <v>0.196848126748544</v>
       </c>
       <c r="F3" t="n">
         <v>0.0425123266601723</v>
@@ -2359,7 +2359,7 @@
         <v>-0.331341434604343</v>
       </c>
       <c r="E4" t="n">
-        <v>0.041447408858239</v>
+        <v>0.147971844006009</v>
       </c>
       <c r="F4" t="n">
         <v>0.041447408858239</v>
@@ -2409,7 +2409,7 @@
         <v>-0.11465737052091</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0355936741808534</v>
+        <v>0.138334570323135</v>
       </c>
       <c r="F5" t="n">
         <v>0.0355936741808534</v>
@@ -2459,7 +2459,7 @@
         <v>-0.113949965411207</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0328066637960802</v>
+        <v>0.113703437302248</v>
       </c>
       <c r="F6" t="n">
         <v>0.0328066637960802</v>
@@ -2509,7 +2509,7 @@
         <v>-0.114571427823683</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0293449430008618</v>
+        <v>0.100699782210192</v>
       </c>
       <c r="F7" t="n">
         <v>0.0293449430008618</v>
@@ -2559,7 +2559,7 @@
         <v>-0.162077360887233</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00827920222784787</v>
+        <v>0.171378524474772</v>
       </c>
       <c r="F8" t="n">
         <v>0.00827920222784787</v>
@@ -2609,7 +2609,7 @@
         <v>-0.161971812098537</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0117727016830782</v>
+        <v>0.118020132952225</v>
       </c>
       <c r="F9" t="n">
         <v>0.0117727016830782</v>
@@ -2659,7 +2659,7 @@
         <v>-0.162822355423941</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0118029762131898</v>
+        <v>0.0938474172379518</v>
       </c>
       <c r="F10" t="n">
         <v>0.0118029762131898</v>
@@ -3987,236 +3987,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.24350920604573</v>
+        <v>0.817554246590524</v>
       </c>
       <c r="B2" t="n">
-        <v>17.2233985120048</v>
+        <v>3.31825899520828</v>
       </c>
       <c r="C2" t="n">
-        <v>101.926692948841</v>
+        <v>19.6371909698068</v>
       </c>
       <c r="D2" t="n">
-        <v>164.917267502515</v>
+        <v>31.7729515446074</v>
       </c>
       <c r="E2" t="n">
-        <v>74.5418251896068</v>
+        <v>14.3612238770562</v>
       </c>
       <c r="F2" t="n">
-        <v>56.4996063649769</v>
+        <v>10.8852110061576</v>
       </c>
       <c r="G2" t="n">
-        <v>48.6860295818775</v>
+        <v>9.37984773959906</v>
       </c>
       <c r="H2" t="n">
-        <v>44.2955828094017</v>
+        <v>8.53398450966817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.76224109482715</v>
+        <v>1.24444301179906</v>
       </c>
       <c r="B3" t="n">
-        <v>20.9087607895071</v>
+        <v>4.51556275096484</v>
       </c>
       <c r="C3" t="n">
-        <v>116.533127298314</v>
+        <v>25.1670892492963</v>
       </c>
       <c r="D3" t="n">
-        <v>183.312994370223</v>
+        <v>39.589210354418</v>
       </c>
       <c r="E3" t="n">
-        <v>81.6452759287395</v>
+        <v>17.6325307122495</v>
       </c>
       <c r="F3" t="n">
-        <v>61.3624481463718</v>
+        <v>13.2521476498417</v>
       </c>
       <c r="G3" t="n">
-        <v>52.5989811743176</v>
+        <v>11.3595445717971</v>
       </c>
       <c r="H3" t="n">
-        <v>47.6881289739274</v>
+        <v>10.2989718532693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.90491384253339</v>
+        <v>1.93408948225835</v>
       </c>
       <c r="B4" t="n">
-        <v>22.9440050730329</v>
+        <v>6.42669262855768</v>
       </c>
       <c r="C4" t="n">
-        <v>122.687169021876</v>
+        <v>34.36508675193</v>
       </c>
       <c r="D4" t="n">
-        <v>189.220153021755</v>
+        <v>53.0011982968377</v>
       </c>
       <c r="E4" t="n">
-        <v>83.4057758275297</v>
+        <v>23.3622370193742</v>
       </c>
       <c r="F4" t="n">
-        <v>62.3177531268823</v>
+        <v>17.4554112664285</v>
       </c>
       <c r="G4" t="n">
-        <v>53.2268855392124</v>
+        <v>14.9090288224349</v>
       </c>
       <c r="H4" t="n">
-        <v>48.1455232034346</v>
+        <v>13.4857222217596</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.36859060901825</v>
+        <v>1.12404433977504</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5806701299496</v>
+        <v>3.75162637026772</v>
       </c>
       <c r="C5" t="n">
-        <v>90.1351593158654</v>
+        <v>23.1918997936243</v>
       </c>
       <c r="D5" t="n">
-        <v>148.306780013219</v>
+        <v>38.1595373757358</v>
       </c>
       <c r="E5" t="n">
-        <v>67.302392796658</v>
+        <v>17.3169977338299</v>
       </c>
       <c r="F5" t="n">
-        <v>51.0285571152291</v>
+        <v>13.129717550977</v>
       </c>
       <c r="G5" t="n">
-        <v>43.9433831111111</v>
+        <v>11.3066925874546</v>
       </c>
       <c r="H5" t="n">
-        <v>39.9488945919691</v>
+        <v>10.2789052271629</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.92565059123682</v>
+        <v>1.70971811699053</v>
       </c>
       <c r="B6" t="n">
-        <v>18.5674758329072</v>
+        <v>5.35724294396499</v>
       </c>
       <c r="C6" t="n">
-        <v>106.996992915225</v>
+        <v>30.8716645428272</v>
       </c>
       <c r="D6" t="n">
-        <v>170.761139929628</v>
+        <v>49.2694279084557</v>
       </c>
       <c r="E6" t="n">
-        <v>76.3841462672631</v>
+        <v>22.0389907763253</v>
       </c>
       <c r="F6" t="n">
-        <v>57.4874944059583</v>
+        <v>16.5867712199588</v>
       </c>
       <c r="G6" t="n">
-        <v>49.3026928377547</v>
+        <v>14.2252240261663</v>
       </c>
       <c r="H6" t="n">
-        <v>44.7102637043517</v>
+        <v>12.9001780806653</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.6109149047932</v>
+        <v>2.21789818372578</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4348791038578</v>
+        <v>6.53775245670095</v>
       </c>
       <c r="C7" t="n">
-        <v>123.724282161345</v>
+        <v>36.0545169826568</v>
       </c>
       <c r="D7" t="n">
-        <v>193.810307187906</v>
+        <v>56.4782990844741</v>
       </c>
       <c r="E7" t="n">
-        <v>85.9617634517</v>
+        <v>25.0501341053387</v>
       </c>
       <c r="F7" t="n">
-        <v>64.423699817986</v>
+        <v>18.7737228181621</v>
       </c>
       <c r="G7" t="n">
-        <v>55.1231278976913</v>
+        <v>16.0634413569094</v>
       </c>
       <c r="H7" t="n">
-        <v>49.9174319150692</v>
+        <v>14.5464484842635</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.12303508904962</v>
+        <v>0.199181556728711</v>
       </c>
       <c r="B8" t="n">
-        <v>30.3150684507478</v>
+        <v>1.46450427802428</v>
       </c>
       <c r="C8" t="n">
-        <v>162.892595882921</v>
+        <v>7.86925168638812</v>
       </c>
       <c r="D8" t="n">
-        <v>252.94756028477</v>
+        <v>12.2197574699427</v>
       </c>
       <c r="E8" t="n">
-        <v>113.175697236551</v>
+        <v>5.46745566616793</v>
       </c>
       <c r="F8" t="n">
-        <v>85.7124491861716</v>
+        <v>4.14072126266271</v>
       </c>
       <c r="G8" t="n">
-        <v>73.9798239308437</v>
+        <v>3.57392459166725</v>
       </c>
       <c r="H8" t="n">
-        <v>67.444537008351</v>
+        <v>3.25820847604454</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.30988103505239</v>
+        <v>0.429917696633739</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8405618692527</v>
+        <v>2.37813511833017</v>
       </c>
       <c r="C9" t="n">
-        <v>123.121847755731</v>
+        <v>12.2816060958375</v>
       </c>
       <c r="D9" t="n">
-        <v>186.86780204875</v>
+        <v>18.6403695086752</v>
       </c>
       <c r="E9" t="n">
-        <v>82.3136513906213</v>
+        <v>8.21092162859161</v>
       </c>
       <c r="F9" t="n">
-        <v>61.6451254766388</v>
+        <v>6.14920229539288</v>
       </c>
       <c r="G9" t="n">
-        <v>52.7712472592395</v>
+        <v>5.26401839996634</v>
       </c>
       <c r="H9" t="n">
-        <v>47.8146914412974</v>
+        <v>4.76959383391557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.3395452122519</v>
+        <v>0.671542456727027</v>
       </c>
       <c r="B10" t="n">
-        <v>24.8681990804798</v>
+        <v>3.1276168364607</v>
       </c>
       <c r="C10" t="n">
-        <v>123.679447618228</v>
+        <v>15.5548828221568</v>
       </c>
       <c r="D10" t="n">
-        <v>183.341975978128</v>
+        <v>23.0585033135461</v>
       </c>
       <c r="E10" t="n">
-        <v>79.4956337631951</v>
+        <v>9.99798504822353</v>
       </c>
       <c r="F10" t="n">
-        <v>58.9102011870489</v>
+        <v>7.40900201400296</v>
       </c>
       <c r="G10" t="n">
-        <v>50.074575362232</v>
+        <v>6.29776545035265</v>
       </c>
       <c r="H10" t="n">
-        <v>45.1533032078453</v>
+        <v>5.67882824476518</v>
       </c>
     </row>
     <row r="11">
